--- a/Lab3/pipeline base.xlsx
+++ b/Lab3/pipeline base.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">main:   daddi r8,r0,0</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t xml:space="preserve">loop:   l.d f1,v1(r8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65 * 60 = 3900</t>
   </si>
   <si>
     <t xml:space="preserve">        l.d f2,v2(r8)</t>
@@ -116,12 +119,540 @@
   <si>
     <t xml:space="preserve">exit: halt</t>
   </si>
+  <si>
+    <t xml:space="preserve">56 * 60 = 3360</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        s.d f5,v5(r8)</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        daddi r8,r8,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        bne r8,r9,loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        daddi r9,r0,472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same as before, but wrong</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">:   daddi r8,r0,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">        daddi r9,r0,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>472</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>loop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">:   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>l.d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve"> f1,v1(r8)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>l.d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve"> f2,v2(r8)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>l.d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve"> f3,v3(r8)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>l.d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve"> f4,v4(r8)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>mul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">.d f6,f4,f1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">.d f5,f1,f2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">.d f7,f2,f3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>mul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">.d f5,f5,f3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">.d f5,f5,f4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">.d f6,f5,f6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>mul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">.d f7,f6,f7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>s.d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve"> f5,v5(r8)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>s.d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve"> f6,v6(r8)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>s.d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve"> f7,v7(r8)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">        daddi r8,r8,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>l.d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve"> f1,v1(r8)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>bne</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve"> r8,r9,loop</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>exit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="64"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">:   halt</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -129,12 +660,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.500000"/>
+    </font>
+    <font>
       <name val="Consolas"/>
       <color theme="1"/>
       <sz val="10.500000"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <color indexed="2"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,8 +699,14 @@
         <bgColor theme="6" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -171,12 +729,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="33">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -196,19 +804,87 @@
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="6" numFmtId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -713,7 +1389,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A1" workbookViewId="0" zoomScale="100">
+    <sheetView topLeftCell="A78" workbookViewId="0" zoomScale="100">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
@@ -723,9 +1399,7 @@
     <col customWidth="1" min="1" max="1" style="1" width="39.57421875"/>
     <col customWidth="1" min="2" max="2" style="1" width="2.8515625"/>
     <col customWidth="1" min="3" max="3" style="1" width="4.28125"/>
-    <col customWidth="1" min="4" max="4" style="1" width="4.00390625"/>
-    <col customWidth="1" min="5" max="5" style="1" width="3.57421875"/>
-    <col customWidth="1" min="6" max="7" style="1" width="4.00390625"/>
+    <col customWidth="1" min="4" max="7" style="1" width="4.00390625"/>
     <col customWidth="1" min="8" max="8" style="1" width="3.28125"/>
     <col customWidth="1" min="9" max="9" style="1" width="3.7109375"/>
     <col customWidth="1" min="10" max="10" style="1" width="4.00390625"/>
@@ -1248,15 +1922,15 @@
       <c r="CA5" s="1">
         <v>1</v>
       </c>
-      <c r="CB5" s="4">
-        <v>65</v>
-      </c>
-      <c r="CC5" s="4"/>
-      <c r="CD5" s="4"/>
+      <c r="CB5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC5" s="8"/>
+      <c r="CD5" s="8"/>
     </row>
     <row r="6" s="5" customFormat="1" ht="15">
       <c r="A6" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1341,13 +2015,13 @@
       <c r="CA6" s="5">
         <v>1</v>
       </c>
-      <c r="CB6" s="4"/>
-      <c r="CC6" s="4"/>
-      <c r="CD6" s="4"/>
+      <c r="CB6" s="8"/>
+      <c r="CC6" s="8"/>
+      <c r="CD6" s="8"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="14.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1432,13 +2106,13 @@
       <c r="CA7" s="1">
         <v>1</v>
       </c>
-      <c r="CB7" s="4"/>
-      <c r="CC7" s="4"/>
-      <c r="CD7" s="4"/>
+      <c r="CB7" s="8"/>
+      <c r="CC7" s="8"/>
+      <c r="CD7" s="8"/>
     </row>
     <row r="8" s="5" customFormat="1" ht="15">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1523,13 +2197,13 @@
       <c r="CA8" s="5">
         <v>1</v>
       </c>
-      <c r="CB8" s="4"/>
-      <c r="CC8" s="4"/>
-      <c r="CD8" s="4"/>
+      <c r="CB8" s="8"/>
+      <c r="CC8" s="8"/>
+      <c r="CD8" s="8"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="14.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1624,13 +2298,13 @@
       <c r="CA9" s="1">
         <v>6</v>
       </c>
-      <c r="CB9" s="4"/>
-      <c r="CC9" s="4"/>
-      <c r="CD9" s="4"/>
+      <c r="CB9" s="8"/>
+      <c r="CC9" s="8"/>
+      <c r="CD9" s="8"/>
     </row>
     <row r="10" s="5" customFormat="1" ht="15">
       <c r="A10" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1725,13 +2399,13 @@
       <c r="CA10" s="5">
         <v>1</v>
       </c>
-      <c r="CB10" s="4"/>
-      <c r="CC10" s="4"/>
-      <c r="CD10" s="4"/>
+      <c r="CB10" s="8"/>
+      <c r="CC10" s="8"/>
+      <c r="CD10" s="8"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="14.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1826,13 +2500,13 @@
       <c r="CA11" s="1">
         <v>1</v>
       </c>
-      <c r="CB11" s="4"/>
-      <c r="CC11" s="4"/>
-      <c r="CD11" s="4"/>
+      <c r="CB11" s="8"/>
+      <c r="CC11" s="8"/>
+      <c r="CD11" s="8"/>
     </row>
     <row r="12" s="5" customFormat="1" ht="15">
       <c r="A12" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1927,13 +2601,13 @@
       <c r="CA12" s="5">
         <v>1</v>
       </c>
-      <c r="CB12" s="4"/>
-      <c r="CC12" s="4"/>
-      <c r="CD12" s="4"/>
+      <c r="CB12" s="8"/>
+      <c r="CC12" s="8"/>
+      <c r="CD12" s="8"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="14.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1955,19 +2629,19 @@
         <v>2</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>3</v>
@@ -1999,7 +2673,7 @@
       <c r="AE13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AF13" s="7" t="s">
+      <c r="AF13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AG13" s="1"/>
@@ -2044,13 +2718,13 @@
       <c r="CA13" s="1">
         <v>8</v>
       </c>
-      <c r="CB13" s="4"/>
-      <c r="CC13" s="4"/>
-      <c r="CD13" s="4"/>
+      <c r="CB13" s="8"/>
+      <c r="CC13" s="8"/>
+      <c r="CD13" s="8"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="15">
       <c r="A14" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2070,43 +2744,43 @@
         <v>1</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V14" s="5" t="s">
         <v>2</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AD14" s="5" t="s">
         <v>3</v>
@@ -2169,13 +2843,13 @@
       <c r="CA14" s="5">
         <v>5</v>
       </c>
-      <c r="CB14" s="4"/>
-      <c r="CC14" s="4"/>
-      <c r="CD14" s="4"/>
+      <c r="CB14" s="8"/>
+      <c r="CC14" s="8"/>
+      <c r="CD14" s="8"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="14.25">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2201,25 +2875,25 @@
         <v>1</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AD15" s="1" t="s">
         <v>2</v>
@@ -2288,13 +2962,13 @@
       <c r="CA15" s="1">
         <v>3</v>
       </c>
-      <c r="CB15" s="4"/>
-      <c r="CC15" s="4"/>
-      <c r="CD15" s="4"/>
+      <c r="CB15" s="8"/>
+      <c r="CC15" s="8"/>
+      <c r="CD15" s="8"/>
     </row>
     <row r="16" s="5" customFormat="1" ht="15">
       <c r="A16" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2331,27 +3005,27 @@
         <v>2</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH16" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI16" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ16" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK16" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM16" s="5" t="s">
         <v>2</v>
       </c>
       <c r="AN16" s="5" t="s">
@@ -2423,13 +3097,13 @@
       <c r="BJ16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BK16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL16" s="8" t="s">
+      <c r="BK16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BM16" s="8" t="s">
+      <c r="BM16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="BN16" s="5"/>
@@ -2441,13 +3115,13 @@
       <c r="CA16" s="5">
         <v>24</v>
       </c>
-      <c r="CB16" s="4"/>
-      <c r="CC16" s="4"/>
-      <c r="CD16" s="4"/>
+      <c r="CB16" s="8"/>
+      <c r="CC16" s="8"/>
+      <c r="CD16" s="8"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="14.25">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2486,19 +3160,19 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
-      <c r="AM17" s="7" t="s">
+      <c r="AM17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AN17" s="7" t="s">
+      <c r="AN17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AO17" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP17" s="7" t="s">
+      <c r="AO17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AQ17" s="7" t="s">
+      <c r="AQ17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AR17" s="1"/>
@@ -2529,16 +3203,16 @@
       <c r="BQ17" s="1"/>
       <c r="BR17" s="1"/>
       <c r="BS17" s="1"/>
-      <c r="CA17" s="7">
+      <c r="CA17" s="1">
         <v>0</v>
       </c>
-      <c r="CB17" s="4"/>
-      <c r="CC17" s="4"/>
-      <c r="CD17" s="4"/>
+      <c r="CB17" s="8"/>
+      <c r="CC17" s="8"/>
+      <c r="CD17" s="8"/>
     </row>
     <row r="18" s="5" customFormat="1" ht="15">
       <c r="A18" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2578,118 +3252,118 @@
       <c r="AK18" s="5"/>
       <c r="AL18" s="5"/>
       <c r="AM18" s="5"/>
-      <c r="AN18" s="8" t="s">
+      <c r="AN18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AO18" s="8" t="s">
+      <c r="AO18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AP18" s="8" t="s">
-        <v>19</v>
+      <c r="AP18" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="AQ18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BE18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BF18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BG18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BH18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BI18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BJ18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BK18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="BL18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="BM18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="BN18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="BO18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="BP18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="BQ18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="BR18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="BS18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="BT18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BU18" s="8" t="s">
+      <c r="BU18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="CA18" s="8">
+      <c r="CA18" s="5">
         <v>8</v>
       </c>
-      <c r="CB18" s="4"/>
-      <c r="CC18" s="4"/>
-      <c r="CD18" s="4"/>
+      <c r="CB18" s="8"/>
+      <c r="CC18" s="8"/>
+      <c r="CD18" s="8"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="14.25">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2730,19 +3404,19 @@
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
-      <c r="AO19" s="7" t="s">
+      <c r="AO19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AP19" s="7" t="s">
+      <c r="AP19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AQ19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR19" s="7" t="s">
+      <c r="AQ19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AS19" s="7" t="s">
+      <c r="AS19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AT19" s="1"/>
@@ -2774,9 +3448,9 @@
       <c r="CA19" s="1">
         <v>0</v>
       </c>
-      <c r="CB19" s="4"/>
-      <c r="CC19" s="4"/>
-      <c r="CD19" s="4"/>
+      <c r="CB19" s="8"/>
+      <c r="CC19" s="8"/>
+      <c r="CD19" s="8"/>
     </row>
     <row r="20" s="5" customFormat="1" ht="15">
       <c r="A20" s="6" t="s">
@@ -2865,13 +3539,13 @@
       <c r="CA20" s="1">
         <v>0</v>
       </c>
-      <c r="CB20" s="4"/>
-      <c r="CC20" s="4"/>
-      <c r="CD20" s="4"/>
+      <c r="CB20" s="8"/>
+      <c r="CC20" s="8"/>
+      <c r="CD20" s="8"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="14.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2914,19 +3588,19 @@
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
-      <c r="AQ21" s="7" t="s">
+      <c r="AQ21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AR21" s="7" t="s">
+      <c r="AR21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AS21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT21" s="7" t="s">
+      <c r="AS21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AU21" s="7" t="s">
+      <c r="AU21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AV21" s="1"/>
@@ -2956,13 +3630,13 @@
       <c r="CA21" s="1">
         <v>0</v>
       </c>
-      <c r="CB21" s="4"/>
-      <c r="CC21" s="4"/>
-      <c r="CD21" s="4"/>
+      <c r="CB21" s="8"/>
+      <c r="CC21" s="8"/>
+      <c r="CD21" s="8"/>
     </row>
     <row r="22" s="5" customFormat="1" ht="15">
       <c r="A22" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3005,74 +3679,74 @@
       <c r="AN22" s="5"/>
       <c r="AO22" s="5"/>
       <c r="AP22" s="5"/>
-      <c r="AQ22" s="8"/>
-      <c r="AR22" s="8" t="s">
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AS22" s="8" t="s">
+      <c r="AS22" s="5" t="s">
         <v>2</v>
       </c>
       <c r="AT22" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU22" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV22" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW22" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX22" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY22" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ22" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA22" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB22" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC22" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD22" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BE22" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BF22" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BG22" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BH22" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BI22" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BJ22" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BK22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="BL22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="BM22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BN22" s="8" t="s">
+      <c r="BN22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="BO22" s="5"/>
@@ -3083,13 +3757,13 @@
       <c r="CA22" s="1">
         <v>0</v>
       </c>
-      <c r="CB22" s="4"/>
-      <c r="CC22" s="4"/>
-      <c r="CD22" s="4"/>
+      <c r="CB22" s="8"/>
+      <c r="CC22" s="8"/>
+      <c r="CD22" s="8"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="14.25">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3133,107 +3807,107 @@
       <c r="AO23" s="1"/>
       <c r="AP23" s="1"/>
       <c r="AQ23" s="1"/>
-      <c r="AR23" s="7"/>
-      <c r="AS23" s="7" t="s">
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AT23" s="8" t="s">
+      <c r="AT23" s="5" t="s">
         <v>2</v>
       </c>
       <c r="AU23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BE23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BF23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BG23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BH23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BI23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BJ23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BK23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BL23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BM23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BN23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BO23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BP23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BQ23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BR23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="BT23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="BU23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BT23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BV23" s="7" t="s">
+      <c r="BV23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="CA23" s="1">
         <v>1</v>
       </c>
-      <c r="CB23" s="4"/>
-      <c r="CC23" s="4"/>
-      <c r="CD23" s="4"/>
+      <c r="CB23" s="8"/>
+      <c r="CC23" s="8"/>
+      <c r="CD23" s="8"/>
     </row>
     <row r="24" s="5" customFormat="1" ht="15">
       <c r="A24" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -3279,19 +3953,19 @@
       <c r="AQ24" s="5"/>
       <c r="AR24" s="5"/>
       <c r="AS24" s="1"/>
-      <c r="AT24" s="7" t="s">
+      <c r="AT24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AU24" s="7" t="s">
+      <c r="AU24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AV24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW24" s="7" t="s">
+      <c r="AV24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AX24" s="7" t="s">
+      <c r="AX24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AY24" s="5"/>
@@ -3318,9 +3992,9 @@
       <c r="CA24" s="1">
         <v>0</v>
       </c>
-      <c r="CB24" s="4"/>
-      <c r="CC24" s="4"/>
-      <c r="CD24" s="4"/>
+      <c r="CB24" s="8"/>
+      <c r="CC24" s="8"/>
+      <c r="CD24" s="8"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="14.25">
       <c r="A25" s="2" t="s">
@@ -3409,13 +4083,13 @@
       <c r="CA25" s="1">
         <v>0</v>
       </c>
-      <c r="CB25" s="4"/>
-      <c r="CC25" s="4"/>
-      <c r="CD25" s="4"/>
+      <c r="CB25" s="8"/>
+      <c r="CC25" s="8"/>
+      <c r="CD25" s="8"/>
     </row>
     <row r="26" s="5" customFormat="1" ht="15">
       <c r="A26" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -3463,100 +4137,100 @@
       <c r="AS26" s="5"/>
       <c r="AT26" s="5"/>
       <c r="AU26" s="5"/>
-      <c r="AV26" s="8" t="s">
+      <c r="AV26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AW26" s="8" t="s">
+      <c r="AW26" s="5" t="s">
         <v>2</v>
       </c>
       <c r="AX26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BE26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BF26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BG26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BH26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BI26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BJ26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BK26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BL26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BM26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BN26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BO26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BP26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BQ26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BR26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BT26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BU26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="BV26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="BV26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BW26" s="8" t="s">
+      <c r="BW26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="CA26" s="5">
         <v>1</v>
       </c>
-      <c r="CB26" s="4"/>
-      <c r="CC26" s="4"/>
-      <c r="CD26" s="4"/>
+      <c r="CB26" s="8"/>
+      <c r="CC26" s="8"/>
+      <c r="CD26" s="8"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="14.25">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3605,100 +4279,100 @@
       <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
       <c r="AV27" s="1"/>
-      <c r="AW27" s="7" t="s">
+      <c r="AW27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AX27" s="7" t="s">
+      <c r="AX27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AY27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BE27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BF27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BG27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BH27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BI27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BJ27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BK27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BL27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BM27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BN27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BO27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BP27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BQ27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BR27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BT27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BU27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="BV27" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="BW27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BV27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BX27" s="7" t="s">
+      <c r="BX27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="CA27" s="1">
         <v>1</v>
       </c>
-      <c r="CB27" s="4"/>
-      <c r="CC27" s="4"/>
-      <c r="CD27" s="4"/>
+      <c r="CB27" s="8"/>
+      <c r="CC27" s="8"/>
+      <c r="CD27" s="8"/>
     </row>
     <row r="28" s="5" customFormat="1" ht="15">
       <c r="A28" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3748,96 +4422,96 @@
       <c r="AU28" s="5"/>
       <c r="AV28" s="5"/>
       <c r="AW28" s="5"/>
-      <c r="AX28" s="8" t="s">
+      <c r="AX28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AY28" s="8" t="s">
+      <c r="AY28" s="5" t="s">
         <v>2</v>
       </c>
       <c r="AZ28" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA28" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB28" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC28" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD28" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BE28" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BF28" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BG28" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BH28" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BI28" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BJ28" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BK28" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BL28" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BM28" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BN28" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BO28" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BP28" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BQ28" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BR28" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS28" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BT28" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BU28" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BV28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="BW28" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="BX28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="BW28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX28" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BY28" s="8" t="s">
+      <c r="BY28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="CA28" s="5">
         <v>1</v>
       </c>
-      <c r="CB28" s="4"/>
-      <c r="CC28" s="4"/>
-      <c r="CD28" s="4"/>
+      <c r="CB28" s="8"/>
+      <c r="CC28" s="8"/>
+      <c r="CD28" s="8"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="14.25">
       <c r="A29" s="2" t="s">
@@ -3892,19 +4566,19 @@
       <c r="AV29" s="1"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
-      <c r="AY29" s="7" t="s">
+      <c r="AY29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AZ29" s="7" t="s">
+      <c r="AZ29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BA29" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB29" s="7" t="s">
+      <c r="BA29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BC29" s="7" t="s">
+      <c r="BC29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="BD29" s="1"/>
@@ -3926,13 +4600,13 @@
       <c r="CA29" s="1">
         <v>0</v>
       </c>
-      <c r="CB29" s="4"/>
-      <c r="CC29" s="4"/>
-      <c r="CD29" s="4"/>
+      <c r="CB29" s="8"/>
+      <c r="CC29" s="8"/>
+      <c r="CD29" s="8"/>
     </row>
     <row r="30" s="5" customFormat="1" ht="15">
       <c r="A30" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -3984,19 +4658,19 @@
       <c r="AW30" s="5"/>
       <c r="AX30" s="5"/>
       <c r="AY30" s="5"/>
-      <c r="AZ30" s="8" t="s">
+      <c r="AZ30" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="BA30" s="8" t="s">
+      <c r="BA30" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="BB30" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC30" s="8" t="s">
+      <c r="BB30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BD30" s="8" t="s">
+      <c r="BD30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="BE30" s="5"/>
@@ -4014,7 +4688,7 @@
       <c r="BQ30" s="5"/>
       <c r="BR30" s="5"/>
       <c r="BS30" s="5"/>
-      <c r="CA30" s="8">
+      <c r="CA30" s="5">
         <v>0</v>
       </c>
       <c r="CB30" s="4">
@@ -4062,122 +4736,260 @@
       <c r="AJ31" s="1"/>
     </row>
     <row r="32" s="5" customFormat="1" ht="15">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="5"/>
-      <c r="AG32" s="5"/>
-      <c r="AH32" s="5"/>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="9"/>
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="9"/>
+      <c r="AK32" s="9"/>
+      <c r="AL32" s="9"/>
+      <c r="AM32" s="9"/>
+      <c r="AN32" s="9"/>
+      <c r="AO32" s="9"/>
+      <c r="AP32" s="9"/>
+      <c r="AQ32" s="9"/>
+      <c r="AR32" s="9"/>
+      <c r="AS32" s="9"/>
+      <c r="AT32" s="9"/>
+      <c r="AU32" s="9"/>
+      <c r="AV32" s="9"/>
+      <c r="AW32" s="9"/>
+      <c r="AX32" s="9"/>
+      <c r="AY32" s="9"/>
+      <c r="AZ32" s="9"/>
+      <c r="BA32" s="9"/>
+      <c r="BB32" s="9"/>
+      <c r="BC32" s="9"/>
+      <c r="BD32" s="9"/>
+      <c r="BE32" s="9"/>
+      <c r="BF32" s="9"/>
+      <c r="BG32" s="9"/>
+      <c r="BH32" s="9"/>
+      <c r="BI32" s="9"/>
+      <c r="BJ32" s="9"/>
+      <c r="BK32" s="9"/>
+      <c r="BL32" s="9"/>
+      <c r="BM32" s="9"/>
+      <c r="BN32" s="9"/>
+      <c r="BO32" s="9"/>
+      <c r="BP32" s="9"/>
+      <c r="BQ32" s="9"/>
+      <c r="BR32" s="9"/>
+      <c r="BS32" s="9"/>
+      <c r="BT32" s="9"/>
+      <c r="BU32" s="9"/>
+      <c r="BV32" s="9"/>
+      <c r="BW32" s="9"/>
+      <c r="BX32" s="9"/>
+      <c r="BY32" s="9"/>
+      <c r="BZ32" s="9"/>
+      <c r="CA32" s="9"/>
+      <c r="CB32" s="9"/>
+      <c r="CC32" s="9"/>
+      <c r="CD32" s="9"/>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="9"/>
+      <c r="AJ33" s="9"/>
+      <c r="AK33" s="9"/>
+      <c r="AL33" s="9"/>
+      <c r="AM33" s="9"/>
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="9"/>
+      <c r="AP33" s="9"/>
+      <c r="AQ33" s="9"/>
+      <c r="AR33" s="9"/>
+      <c r="AS33" s="9"/>
+      <c r="AT33" s="9"/>
+      <c r="AU33" s="9"/>
+      <c r="AV33" s="9"/>
+      <c r="AW33" s="9"/>
+      <c r="AX33" s="9"/>
+      <c r="AY33" s="9"/>
+      <c r="AZ33" s="9"/>
+      <c r="BA33" s="9"/>
+      <c r="BB33" s="9"/>
+      <c r="BC33" s="9"/>
+      <c r="BD33" s="9"/>
+      <c r="BE33" s="9"/>
+      <c r="BF33" s="9"/>
+      <c r="BG33" s="9"/>
+      <c r="BH33" s="9"/>
+      <c r="BI33" s="9"/>
+      <c r="BJ33" s="9"/>
+      <c r="BK33" s="9"/>
+      <c r="BL33" s="9"/>
+      <c r="BM33" s="9"/>
+      <c r="BN33" s="9"/>
+      <c r="BO33" s="9"/>
+      <c r="BP33" s="9"/>
+      <c r="BQ33" s="9"/>
+      <c r="BR33" s="9"/>
+      <c r="BS33" s="9"/>
+      <c r="BT33" s="9"/>
+      <c r="BU33" s="9"/>
+      <c r="BV33" s="9"/>
+      <c r="BW33" s="9"/>
+      <c r="BX33" s="9"/>
+      <c r="BY33" s="9"/>
+      <c r="BZ33" s="9"/>
+      <c r="CA33" s="9"/>
+      <c r="CB33" s="9"/>
+      <c r="CC33" s="9"/>
+      <c r="CD33" s="9"/>
     </row>
     <row r="34" s="5" customFormat="1" ht="15">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="9"/>
+      <c r="AJ34" s="9"/>
+      <c r="AK34" s="9"/>
+      <c r="AL34" s="9"/>
+      <c r="AM34" s="9"/>
+      <c r="AN34" s="9"/>
+      <c r="AO34" s="9"/>
+      <c r="AP34" s="9"/>
+      <c r="AQ34" s="9"/>
+      <c r="AR34" s="9"/>
+      <c r="AS34" s="9"/>
+      <c r="AT34" s="9"/>
+      <c r="AU34" s="9"/>
+      <c r="AV34" s="9"/>
+      <c r="AW34" s="9"/>
+      <c r="AX34" s="9"/>
+      <c r="AY34" s="9"/>
+      <c r="AZ34" s="9"/>
+      <c r="BA34" s="9"/>
+      <c r="BB34" s="9"/>
+      <c r="BC34" s="9"/>
+      <c r="BD34" s="9"/>
+      <c r="BE34" s="9"/>
+      <c r="BF34" s="9"/>
+      <c r="BG34" s="9"/>
+      <c r="BH34" s="9"/>
+      <c r="BI34" s="9"/>
+      <c r="BJ34" s="9"/>
+      <c r="BK34" s="9"/>
+      <c r="BL34" s="9"/>
+      <c r="BM34" s="9"/>
+      <c r="BN34" s="9"/>
+      <c r="BO34" s="9"/>
+      <c r="BP34" s="9"/>
+      <c r="BQ34" s="9"/>
+      <c r="BR34" s="9"/>
+      <c r="BS34" s="9"/>
+      <c r="BT34" s="9"/>
+      <c r="BU34" s="9"/>
+      <c r="BV34" s="9"/>
+      <c r="BW34" s="9"/>
+      <c r="BX34" s="9"/>
+      <c r="BY34" s="9"/>
+      <c r="BZ34" s="9"/>
+      <c r="CA34" s="9"/>
+      <c r="CB34" s="9"/>
+      <c r="CC34" s="9"/>
+      <c r="CD34" s="9"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -4212,15 +5024,75 @@
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="1"/>
+      <c r="BK35" s="1"/>
+      <c r="BL35" s="1"/>
+      <c r="BM35" s="1"/>
+      <c r="BN35" s="1"/>
+      <c r="BO35" s="1"/>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="1"/>
+      <c r="BR35" s="1"/>
+      <c r="BS35" s="1"/>
+      <c r="BT35" s="1"/>
+      <c r="BU35" s="1"/>
+      <c r="BV35" s="1"/>
+      <c r="BW35" s="1"/>
+      <c r="BX35" s="1"/>
+      <c r="BY35" s="1"/>
+      <c r="BZ35" s="1"/>
+      <c r="CA35" s="10"/>
+      <c r="CB35" s="11">
+        <v>3</v>
+      </c>
+      <c r="CC35" s="12"/>
+      <c r="CD35" s="13"/>
     </row>
     <row r="36" s="5" customFormat="1" ht="15">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="A36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -4250,16 +5122,80 @@
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
       <c r="AJ36" s="5"/>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
+      <c r="AQ36" s="5"/>
+      <c r="AR36" s="5"/>
+      <c r="AS36" s="5"/>
+      <c r="AT36" s="5"/>
+      <c r="AU36" s="5"/>
+      <c r="AV36" s="5"/>
+      <c r="AW36" s="5"/>
+      <c r="AX36" s="5"/>
+      <c r="AY36" s="5"/>
+      <c r="AZ36" s="5"/>
+      <c r="BA36" s="5"/>
+      <c r="BB36" s="5"/>
+      <c r="BC36" s="5"/>
+      <c r="BD36" s="5"/>
+      <c r="BE36" s="5"/>
+      <c r="BF36" s="5"/>
+      <c r="BG36" s="5"/>
+      <c r="BH36" s="5"/>
+      <c r="BI36" s="5"/>
+      <c r="BJ36" s="5"/>
+      <c r="BK36" s="5"/>
+      <c r="BL36" s="5"/>
+      <c r="BM36" s="5"/>
+      <c r="BN36" s="5"/>
+      <c r="BO36" s="5"/>
+      <c r="BP36" s="5"/>
+      <c r="BQ36" s="5"/>
+      <c r="BR36" s="5"/>
+      <c r="BS36" s="5"/>
+      <c r="BT36" s="5"/>
+      <c r="BU36" s="5"/>
+      <c r="BV36" s="5"/>
+      <c r="BW36" s="5"/>
+      <c r="BX36" s="5"/>
+      <c r="BY36" s="5"/>
+      <c r="BZ36" s="5"/>
+      <c r="CA36" s="5">
+        <v>1</v>
+      </c>
+      <c r="CB36" s="15"/>
+      <c r="CC36" s="15"/>
+      <c r="CD36" s="15"/>
+      <c r="CE36" s="5"/>
+      <c r="CF36" s="5"/>
+      <c r="CG36" s="5"/>
+      <c r="CH36" s="5"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="14.25">
+      <c r="A37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -4288,15 +5224,81 @@
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1"/>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="1"/>
+      <c r="BD37" s="1"/>
+      <c r="BE37" s="1"/>
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1"/>
+      <c r="BH37" s="1"/>
+      <c r="BI37" s="1"/>
+      <c r="BJ37" s="1"/>
+      <c r="BK37" s="1"/>
+      <c r="BL37" s="1"/>
+      <c r="BM37" s="1"/>
+      <c r="BN37" s="1"/>
+      <c r="BO37" s="1"/>
+      <c r="BP37" s="1"/>
+      <c r="BQ37" s="1"/>
+      <c r="BR37" s="1"/>
+      <c r="BS37" s="1"/>
+      <c r="BT37" s="1"/>
+      <c r="BU37" s="1"/>
+      <c r="BV37" s="1"/>
+      <c r="BW37" s="1"/>
+      <c r="BX37" s="1"/>
+      <c r="BY37" s="1"/>
+      <c r="BZ37" s="1"/>
+      <c r="CA37" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB37" s="1"/>
+      <c r="CC37" s="1"/>
+      <c r="CD37" s="1"/>
+      <c r="CE37" s="1"/>
+      <c r="CF37" s="1"/>
+      <c r="CG37" s="1"/>
+      <c r="CH37" s="1"/>
     </row>
     <row r="38" s="5" customFormat="1" ht="15">
+      <c r="A38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -4324,16 +5326,82 @@
       <c r="AH38" s="5"/>
       <c r="AI38" s="5"/>
       <c r="AJ38" s="5"/>
-    </row>
-    <row r="39" ht="14.25">
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="5"/>
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="5"/>
+      <c r="AQ38" s="5"/>
+      <c r="AR38" s="5"/>
+      <c r="AS38" s="5"/>
+      <c r="AT38" s="5"/>
+      <c r="AU38" s="5"/>
+      <c r="AV38" s="5"/>
+      <c r="AW38" s="5"/>
+      <c r="AX38" s="5"/>
+      <c r="AY38" s="5"/>
+      <c r="AZ38" s="5"/>
+      <c r="BA38" s="5"/>
+      <c r="BB38" s="5"/>
+      <c r="BC38" s="5"/>
+      <c r="BD38" s="5"/>
+      <c r="BE38" s="5"/>
+      <c r="BF38" s="5"/>
+      <c r="BG38" s="5"/>
+      <c r="BH38" s="5"/>
+      <c r="BI38" s="5"/>
+      <c r="BJ38" s="5"/>
+      <c r="BK38" s="5"/>
+      <c r="BL38" s="5"/>
+      <c r="BM38" s="5"/>
+      <c r="BN38" s="5"/>
+      <c r="BO38" s="5"/>
+      <c r="BP38" s="5"/>
+      <c r="BQ38" s="5"/>
+      <c r="BR38" s="5"/>
+      <c r="BS38" s="5"/>
+      <c r="BT38" s="5"/>
+      <c r="BU38" s="5"/>
+      <c r="BV38" s="5"/>
+      <c r="BW38" s="5"/>
+      <c r="BX38" s="5"/>
+      <c r="BY38" s="5"/>
+      <c r="BZ38" s="5"/>
+      <c r="CA38" s="5">
+        <v>1</v>
+      </c>
+      <c r="CB38" s="15"/>
+      <c r="CC38" s="15"/>
+      <c r="CD38" s="15"/>
+      <c r="CE38" s="5"/>
+      <c r="CF38" s="5"/>
+      <c r="CG38" s="5"/>
+      <c r="CH38" s="5"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="14.25">
+      <c r="A39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -4360,16 +5428,5360 @@
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1"/>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+      <c r="BH39" s="1"/>
+      <c r="BI39" s="1"/>
+      <c r="BJ39" s="1"/>
+      <c r="BK39" s="1"/>
+      <c r="BL39" s="1"/>
+      <c r="BM39" s="1"/>
+      <c r="BN39" s="1"/>
+      <c r="BO39" s="1"/>
+      <c r="BP39" s="1"/>
+      <c r="BQ39" s="1"/>
+      <c r="BR39" s="1"/>
+      <c r="BS39" s="1"/>
+      <c r="BT39" s="1"/>
+      <c r="BU39" s="1"/>
+      <c r="BV39" s="1"/>
+      <c r="BW39" s="1"/>
+      <c r="BX39" s="1"/>
+      <c r="BY39" s="1"/>
+      <c r="BZ39" s="1"/>
+      <c r="CA39" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB39" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC39" s="16"/>
+      <c r="CD39" s="16"/>
+      <c r="CE39" s="1"/>
+      <c r="CF39" s="1"/>
+      <c r="CG39" s="1"/>
+      <c r="CH39" s="1"/>
+    </row>
+    <row r="40" s="5" customFormat="1" ht="14.25">
+      <c r="A40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="5"/>
+      <c r="AQ40" s="5"/>
+      <c r="AR40" s="5"/>
+      <c r="AS40" s="5"/>
+      <c r="AT40" s="5"/>
+      <c r="AU40" s="5"/>
+      <c r="AV40" s="5"/>
+      <c r="AW40" s="5"/>
+      <c r="AX40" s="5"/>
+      <c r="AY40" s="5"/>
+      <c r="AZ40" s="5"/>
+      <c r="BA40" s="5"/>
+      <c r="BB40" s="5"/>
+      <c r="BC40" s="5"/>
+      <c r="BD40" s="5"/>
+      <c r="BE40" s="5"/>
+      <c r="BF40" s="5"/>
+      <c r="BG40" s="5"/>
+      <c r="BH40" s="5"/>
+      <c r="BI40" s="5"/>
+      <c r="BJ40" s="5"/>
+      <c r="BK40" s="5"/>
+      <c r="BL40" s="5"/>
+      <c r="BM40" s="5"/>
+      <c r="BN40" s="5"/>
+      <c r="BO40" s="5"/>
+      <c r="BP40" s="5"/>
+      <c r="BQ40" s="5"/>
+      <c r="BR40" s="5"/>
+      <c r="BS40" s="5"/>
+      <c r="BT40" s="5"/>
+      <c r="BU40" s="5"/>
+      <c r="BV40" s="5"/>
+      <c r="BW40" s="5"/>
+      <c r="BX40" s="5"/>
+      <c r="BY40" s="5"/>
+      <c r="BZ40" s="5"/>
+      <c r="CA40" s="5">
+        <v>1</v>
+      </c>
+      <c r="CB40" s="16"/>
+      <c r="CC40" s="16"/>
+      <c r="CD40" s="16"/>
+      <c r="CE40" s="5"/>
+      <c r="CF40" s="5"/>
+      <c r="CG40" s="5"/>
+      <c r="CH40" s="5"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="14.25">
+      <c r="A41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1"/>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1"/>
+      <c r="BE41" s="1"/>
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="1"/>
+      <c r="BH41" s="1"/>
+      <c r="BI41" s="1"/>
+      <c r="BJ41" s="1"/>
+      <c r="BK41" s="1"/>
+      <c r="BL41" s="1"/>
+      <c r="BM41" s="1"/>
+      <c r="BN41" s="1"/>
+      <c r="BO41" s="1"/>
+      <c r="BP41" s="1"/>
+      <c r="BQ41" s="1"/>
+      <c r="BR41" s="1"/>
+      <c r="BS41" s="1"/>
+      <c r="BT41" s="1"/>
+      <c r="BU41" s="1"/>
+      <c r="BV41" s="1"/>
+      <c r="BW41" s="1"/>
+      <c r="BX41" s="1"/>
+      <c r="BY41" s="1"/>
+      <c r="BZ41" s="1"/>
+      <c r="CA41" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB41" s="16"/>
+      <c r="CC41" s="16"/>
+      <c r="CD41" s="16"/>
+      <c r="CE41" s="1"/>
+      <c r="CF41" s="1"/>
+      <c r="CG41" s="1"/>
+      <c r="CH41" s="1"/>
+    </row>
+    <row r="42" s="5" customFormat="1" ht="14.25">
+      <c r="A42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="5"/>
+      <c r="AO42" s="5"/>
+      <c r="AP42" s="5"/>
+      <c r="AQ42" s="5"/>
+      <c r="AR42" s="5"/>
+      <c r="AS42" s="5"/>
+      <c r="AT42" s="5"/>
+      <c r="AU42" s="5"/>
+      <c r="AV42" s="5"/>
+      <c r="AW42" s="5"/>
+      <c r="AX42" s="5"/>
+      <c r="AY42" s="5"/>
+      <c r="AZ42" s="5"/>
+      <c r="BA42" s="5"/>
+      <c r="BB42" s="5"/>
+      <c r="BC42" s="5"/>
+      <c r="BD42" s="5"/>
+      <c r="BE42" s="5"/>
+      <c r="BF42" s="5"/>
+      <c r="BG42" s="5"/>
+      <c r="BH42" s="5"/>
+      <c r="BI42" s="5"/>
+      <c r="BJ42" s="5"/>
+      <c r="BK42" s="5"/>
+      <c r="BL42" s="5"/>
+      <c r="BM42" s="5"/>
+      <c r="BN42" s="5"/>
+      <c r="BO42" s="5"/>
+      <c r="BP42" s="5"/>
+      <c r="BQ42" s="5"/>
+      <c r="BR42" s="5"/>
+      <c r="BS42" s="5"/>
+      <c r="BT42" s="5"/>
+      <c r="BU42" s="5"/>
+      <c r="BV42" s="5"/>
+      <c r="BW42" s="5"/>
+      <c r="BX42" s="5"/>
+      <c r="BY42" s="5"/>
+      <c r="BZ42" s="5"/>
+      <c r="CA42" s="5">
+        <v>9</v>
+      </c>
+      <c r="CB42" s="16"/>
+      <c r="CC42" s="16"/>
+      <c r="CD42" s="16"/>
+      <c r="CE42" s="5"/>
+      <c r="CF42" s="5"/>
+      <c r="CG42" s="5"/>
+      <c r="CH42" s="5"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="14.25">
+      <c r="A43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1"/>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="1"/>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="1"/>
+      <c r="BE43" s="1"/>
+      <c r="BF43" s="1"/>
+      <c r="BG43" s="1"/>
+      <c r="BH43" s="1"/>
+      <c r="BI43" s="1"/>
+      <c r="BJ43" s="1"/>
+      <c r="BK43" s="1"/>
+      <c r="BL43" s="1"/>
+      <c r="BM43" s="1"/>
+      <c r="BN43" s="1"/>
+      <c r="BO43" s="1"/>
+      <c r="BP43" s="1"/>
+      <c r="BQ43" s="1"/>
+      <c r="BR43" s="1"/>
+      <c r="BS43" s="1"/>
+      <c r="BT43" s="1"/>
+      <c r="BU43" s="1"/>
+      <c r="BV43" s="1"/>
+      <c r="BW43" s="1"/>
+      <c r="BX43" s="1"/>
+      <c r="BY43" s="1"/>
+      <c r="BZ43" s="1"/>
+      <c r="CA43" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB43" s="16"/>
+      <c r="CC43" s="16"/>
+      <c r="CD43" s="16"/>
+      <c r="CE43" s="1"/>
+      <c r="CF43" s="1"/>
+      <c r="CG43" s="1"/>
+      <c r="CH43" s="1"/>
+    </row>
+    <row r="44" s="5" customFormat="1" ht="14.25">
+      <c r="A44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="W44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="5"/>
+      <c r="AS44" s="5"/>
+      <c r="AT44" s="5"/>
+      <c r="AU44" s="5"/>
+      <c r="AV44" s="5"/>
+      <c r="AW44" s="5"/>
+      <c r="AX44" s="5"/>
+      <c r="AY44" s="5"/>
+      <c r="AZ44" s="5"/>
+      <c r="BA44" s="5"/>
+      <c r="BB44" s="5"/>
+      <c r="BC44" s="5"/>
+      <c r="BD44" s="5"/>
+      <c r="BE44" s="5"/>
+      <c r="BF44" s="5"/>
+      <c r="BG44" s="5"/>
+      <c r="BH44" s="5"/>
+      <c r="BI44" s="5"/>
+      <c r="BJ44" s="5"/>
+      <c r="BK44" s="5"/>
+      <c r="BL44" s="5"/>
+      <c r="BM44" s="5"/>
+      <c r="BN44" s="5"/>
+      <c r="BO44" s="5"/>
+      <c r="BP44" s="5"/>
+      <c r="BQ44" s="5"/>
+      <c r="BR44" s="5"/>
+      <c r="BS44" s="5"/>
+      <c r="BT44" s="5"/>
+      <c r="BU44" s="5"/>
+      <c r="BV44" s="5"/>
+      <c r="BW44" s="5"/>
+      <c r="BX44" s="5"/>
+      <c r="BY44" s="5"/>
+      <c r="BZ44" s="5"/>
+      <c r="CA44" s="5">
+        <v>5</v>
+      </c>
+      <c r="CB44" s="16"/>
+      <c r="CC44" s="16"/>
+      <c r="CD44" s="16"/>
+      <c r="CE44" s="5"/>
+      <c r="CF44" s="5"/>
+      <c r="CG44" s="5"/>
+      <c r="CH44" s="5"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="14.25">
+      <c r="A45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="1"/>
+      <c r="BE45" s="1"/>
+      <c r="BF45" s="1"/>
+      <c r="BG45" s="1"/>
+      <c r="BH45" s="1"/>
+      <c r="BI45" s="1"/>
+      <c r="BJ45" s="1"/>
+      <c r="BK45" s="1"/>
+      <c r="BL45" s="1"/>
+      <c r="BM45" s="1"/>
+      <c r="BN45" s="1"/>
+      <c r="BO45" s="1"/>
+      <c r="BP45" s="1"/>
+      <c r="BQ45" s="1"/>
+      <c r="BR45" s="1"/>
+      <c r="BS45" s="1"/>
+      <c r="BT45" s="1"/>
+      <c r="BU45" s="1"/>
+      <c r="BV45" s="1"/>
+      <c r="BW45" s="1"/>
+      <c r="BX45" s="1"/>
+      <c r="BY45" s="1"/>
+      <c r="BZ45" s="1"/>
+      <c r="CA45" s="1">
+        <v>3</v>
+      </c>
+      <c r="CB45" s="16"/>
+      <c r="CC45" s="16"/>
+      <c r="CD45" s="16"/>
+      <c r="CE45" s="1"/>
+      <c r="CF45" s="1"/>
+      <c r="CG45" s="1"/>
+      <c r="CH45" s="1"/>
+    </row>
+    <row r="46" s="5" customFormat="1" ht="14.25">
+      <c r="A46" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T46" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG46" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5"/>
+      <c r="AJ46" s="5"/>
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="5"/>
+      <c r="AM46" s="5"/>
+      <c r="AN46" s="5"/>
+      <c r="AO46" s="5"/>
+      <c r="AP46" s="5"/>
+      <c r="AQ46" s="5"/>
+      <c r="AR46" s="5"/>
+      <c r="AS46" s="5"/>
+      <c r="AT46" s="5"/>
+      <c r="AU46" s="5"/>
+      <c r="AV46" s="5"/>
+      <c r="AW46" s="5"/>
+      <c r="AX46" s="5"/>
+      <c r="AY46" s="5"/>
+      <c r="AZ46" s="5"/>
+      <c r="BA46" s="5"/>
+      <c r="BB46" s="5"/>
+      <c r="BC46" s="5"/>
+      <c r="BD46" s="5"/>
+      <c r="BE46" s="5"/>
+      <c r="BF46" s="5"/>
+      <c r="BG46" s="5"/>
+      <c r="BH46" s="5"/>
+      <c r="BI46" s="5"/>
+      <c r="BJ46" s="5"/>
+      <c r="BK46" s="5"/>
+      <c r="BL46" s="5"/>
+      <c r="BM46" s="5"/>
+      <c r="BN46" s="5"/>
+      <c r="BO46" s="5"/>
+      <c r="BP46" s="5"/>
+      <c r="BQ46" s="5"/>
+      <c r="BR46" s="5"/>
+      <c r="BS46" s="5"/>
+      <c r="BT46" s="5"/>
+      <c r="BU46" s="5"/>
+      <c r="BV46" s="5"/>
+      <c r="BW46" s="5"/>
+      <c r="BX46" s="5"/>
+      <c r="BY46" s="5"/>
+      <c r="BZ46" s="5"/>
+      <c r="CA46" s="5">
+        <v>3</v>
+      </c>
+      <c r="CB46" s="16"/>
+      <c r="CC46" s="16"/>
+      <c r="CD46" s="16"/>
+      <c r="CE46" s="5"/>
+      <c r="CF46" s="5"/>
+      <c r="CG46" s="5"/>
+      <c r="CH46" s="5"/>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="14.25">
+      <c r="A47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF47" s="1"/>
+      <c r="BG47" s="1"/>
+      <c r="BH47" s="1"/>
+      <c r="BI47" s="1"/>
+      <c r="BJ47" s="1"/>
+      <c r="BK47" s="1"/>
+      <c r="BL47" s="1"/>
+      <c r="BM47" s="1"/>
+      <c r="BN47" s="1"/>
+      <c r="BO47" s="1"/>
+      <c r="BP47" s="1"/>
+      <c r="BQ47" s="1"/>
+      <c r="BR47" s="1"/>
+      <c r="BS47" s="1"/>
+      <c r="BT47" s="1"/>
+      <c r="BU47" s="1"/>
+      <c r="BV47" s="1"/>
+      <c r="BW47" s="1"/>
+      <c r="BX47" s="1"/>
+      <c r="BY47" s="1"/>
+      <c r="BZ47" s="1"/>
+      <c r="CA47" s="1">
+        <v>24</v>
+      </c>
+      <c r="CB47" s="16"/>
+      <c r="CC47" s="16"/>
+      <c r="CD47" s="16"/>
+      <c r="CE47" s="1"/>
+      <c r="CF47" s="1"/>
+      <c r="CG47" s="1"/>
+      <c r="CH47" s="1"/>
+    </row>
+    <row r="48" s="5" customFormat="1" ht="14.25">
+      <c r="A48" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN48" s="5"/>
+      <c r="BO48" s="5"/>
+      <c r="BP48" s="5"/>
+      <c r="BQ48" s="5"/>
+      <c r="BR48" s="5"/>
+      <c r="BS48" s="5"/>
+      <c r="BT48" s="5"/>
+      <c r="BU48" s="5"/>
+      <c r="BV48" s="5"/>
+      <c r="BW48" s="5"/>
+      <c r="BX48" s="5"/>
+      <c r="BY48" s="5"/>
+      <c r="BZ48" s="5"/>
+      <c r="CA48" s="5">
+        <v>8</v>
+      </c>
+      <c r="CB48" s="16"/>
+      <c r="CC48" s="16"/>
+      <c r="CD48" s="16"/>
+      <c r="CE48" s="5"/>
+      <c r="CF48" s="5"/>
+      <c r="CG48" s="5"/>
+      <c r="CH48" s="5"/>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="14.25">
+      <c r="A49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH49" s="1"/>
+      <c r="BI49" s="1"/>
+      <c r="BJ49" s="1"/>
+      <c r="BK49" s="1"/>
+      <c r="BL49" s="1"/>
+      <c r="BM49" s="1"/>
+      <c r="BN49" s="1"/>
+      <c r="BO49" s="1"/>
+      <c r="BP49" s="1"/>
+      <c r="BQ49" s="1"/>
+      <c r="BR49" s="1"/>
+      <c r="BS49" s="1"/>
+      <c r="BT49" s="1"/>
+      <c r="BU49" s="1"/>
+      <c r="BV49" s="1"/>
+      <c r="BW49" s="1"/>
+      <c r="BX49" s="1"/>
+      <c r="BY49" s="1"/>
+      <c r="BZ49" s="1"/>
+      <c r="CA49" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB49" s="16"/>
+      <c r="CC49" s="16"/>
+      <c r="CD49" s="16"/>
+      <c r="CE49" s="1"/>
+      <c r="CF49" s="1"/>
+      <c r="CG49" s="1"/>
+      <c r="CH49" s="1"/>
+    </row>
+    <row r="50" s="5" customFormat="1" ht="14.25">
+      <c r="A50" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="5"/>
+      <c r="AI50" s="5"/>
+      <c r="AJ50" s="5"/>
+      <c r="AK50" s="5"/>
+      <c r="AL50" s="5"/>
+      <c r="AM50" s="5"/>
+      <c r="AN50" s="5"/>
+      <c r="AO50" s="5"/>
+      <c r="AP50" s="5"/>
+      <c r="AQ50" s="5"/>
+      <c r="AR50" s="5"/>
+      <c r="AS50" s="5"/>
+      <c r="AT50" s="5"/>
+      <c r="AU50" s="5"/>
+      <c r="AV50" s="5"/>
+      <c r="AW50" s="5"/>
+      <c r="AX50" s="5"/>
+      <c r="AY50" s="5"/>
+      <c r="AZ50" s="5"/>
+      <c r="BA50" s="5"/>
+      <c r="BB50" s="5"/>
+      <c r="BC50" s="5"/>
+      <c r="BD50" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI50" s="5"/>
+      <c r="BJ50" s="5"/>
+      <c r="BK50" s="5"/>
+      <c r="BL50" s="5"/>
+      <c r="BM50" s="5"/>
+      <c r="BN50" s="5"/>
+      <c r="BO50" s="5"/>
+      <c r="BP50" s="5"/>
+      <c r="BQ50" s="5"/>
+      <c r="BR50" s="5"/>
+      <c r="BS50" s="5"/>
+      <c r="BT50" s="5"/>
+      <c r="BU50" s="5"/>
+      <c r="BV50" s="5"/>
+      <c r="BW50" s="5"/>
+      <c r="BX50" s="5"/>
+      <c r="BY50" s="5"/>
+      <c r="BZ50" s="5"/>
+      <c r="CA50" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB50" s="16"/>
+      <c r="CC50" s="16"/>
+      <c r="CD50" s="16"/>
+      <c r="CE50" s="5"/>
+      <c r="CF50" s="5"/>
+      <c r="CG50" s="5"/>
+      <c r="CH50" s="5"/>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="14.25">
+      <c r="A51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+      <c r="AT51" s="1"/>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="1"/>
+      <c r="AX51" s="1"/>
+      <c r="AY51" s="1"/>
+      <c r="AZ51" s="1"/>
+      <c r="BA51" s="1"/>
+      <c r="BB51" s="1"/>
+      <c r="BC51" s="1"/>
+      <c r="BD51" s="1"/>
+      <c r="BE51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BN51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO51" s="1"/>
+      <c r="BP51" s="1"/>
+      <c r="BQ51" s="1"/>
+      <c r="BR51" s="1"/>
+      <c r="BS51" s="1"/>
+      <c r="BT51" s="1"/>
+      <c r="BU51" s="1"/>
+      <c r="BV51" s="1"/>
+      <c r="BW51" s="1"/>
+      <c r="BX51" s="1"/>
+      <c r="BY51" s="1"/>
+      <c r="BZ51" s="1"/>
+      <c r="CA51" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB51" s="16"/>
+      <c r="CC51" s="16"/>
+      <c r="CD51" s="16"/>
+      <c r="CE51" s="1"/>
+      <c r="CF51" s="1"/>
+      <c r="CG51" s="1"/>
+      <c r="CH51" s="1"/>
+    </row>
+    <row r="52" s="5" customFormat="1" ht="14.25">
+      <c r="A52" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5"/>
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="5"/>
+      <c r="AM52" s="5"/>
+      <c r="AN52" s="5"/>
+      <c r="AO52" s="5"/>
+      <c r="AP52" s="5"/>
+      <c r="AQ52" s="5"/>
+      <c r="AR52" s="5"/>
+      <c r="AS52" s="5"/>
+      <c r="AT52" s="5"/>
+      <c r="AU52" s="5"/>
+      <c r="AV52" s="5"/>
+      <c r="AW52" s="5"/>
+      <c r="AX52" s="5"/>
+      <c r="AY52" s="5"/>
+      <c r="AZ52" s="5"/>
+      <c r="BA52" s="5"/>
+      <c r="BB52" s="5"/>
+      <c r="BC52" s="5"/>
+      <c r="BD52" s="5"/>
+      <c r="BE52" s="5"/>
+      <c r="BF52" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG52" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BJ52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BK52" s="5"/>
+      <c r="BL52" s="5"/>
+      <c r="BM52" s="5"/>
+      <c r="BN52" s="5"/>
+      <c r="BO52" s="5"/>
+      <c r="BP52" s="5"/>
+      <c r="BQ52" s="5"/>
+      <c r="BR52" s="5"/>
+      <c r="BS52" s="5"/>
+      <c r="BT52" s="5"/>
+      <c r="BU52" s="5"/>
+      <c r="BV52" s="5"/>
+      <c r="BW52" s="5"/>
+      <c r="BX52" s="5"/>
+      <c r="BY52" s="5"/>
+      <c r="BZ52" s="5"/>
+      <c r="CA52" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB52" s="16"/>
+      <c r="CC52" s="16"/>
+      <c r="CD52" s="16"/>
+      <c r="CE52" s="5"/>
+      <c r="CF52" s="5"/>
+      <c r="CG52" s="5"/>
+      <c r="CH52" s="5"/>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="14.25">
+      <c r="A53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1"/>
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="1"/>
+      <c r="AO53" s="1"/>
+      <c r="AP53" s="1"/>
+      <c r="AQ53" s="1"/>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="1"/>
+      <c r="AT53" s="1"/>
+      <c r="AU53" s="1"/>
+      <c r="AV53" s="1"/>
+      <c r="AW53" s="1"/>
+      <c r="AX53" s="1"/>
+      <c r="AY53" s="1"/>
+      <c r="AZ53" s="1"/>
+      <c r="BA53" s="1"/>
+      <c r="BB53" s="1"/>
+      <c r="BC53" s="1"/>
+      <c r="BD53" s="1"/>
+      <c r="BE53" s="1"/>
+      <c r="BF53" s="1"/>
+      <c r="BG53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BL53" s="1"/>
+      <c r="BM53" s="1"/>
+      <c r="BN53" s="1"/>
+      <c r="BO53" s="1"/>
+      <c r="BP53" s="1"/>
+      <c r="BQ53" s="1"/>
+      <c r="BR53" s="1"/>
+      <c r="BS53" s="1"/>
+      <c r="BT53" s="1"/>
+      <c r="BU53" s="1"/>
+      <c r="BV53" s="1"/>
+      <c r="BW53" s="1"/>
+      <c r="BX53" s="1"/>
+      <c r="BY53" s="1"/>
+      <c r="BZ53" s="1"/>
+      <c r="CA53" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB53" s="16"/>
+      <c r="CC53" s="16"/>
+      <c r="CD53" s="16"/>
+      <c r="CE53" s="1"/>
+      <c r="CF53" s="1"/>
+      <c r="CG53" s="1"/>
+      <c r="CH53" s="1"/>
+    </row>
+    <row r="54" s="5" customFormat="1" ht="14.25">
+      <c r="A54" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="5"/>
+      <c r="AK54" s="5"/>
+      <c r="AL54" s="5"/>
+      <c r="AM54" s="5"/>
+      <c r="AN54" s="5"/>
+      <c r="AO54" s="5"/>
+      <c r="AP54" s="5"/>
+      <c r="AQ54" s="5"/>
+      <c r="AR54" s="5"/>
+      <c r="AS54" s="5"/>
+      <c r="AT54" s="5"/>
+      <c r="AU54" s="5"/>
+      <c r="AV54" s="5"/>
+      <c r="AW54" s="5"/>
+      <c r="AX54" s="5"/>
+      <c r="AY54" s="5"/>
+      <c r="AZ54" s="5"/>
+      <c r="BA54" s="5"/>
+      <c r="BB54" s="5"/>
+      <c r="BC54" s="5"/>
+      <c r="BD54" s="5"/>
+      <c r="BE54" s="5"/>
+      <c r="BF54" s="5"/>
+      <c r="BG54" s="5"/>
+      <c r="BH54" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ54" s="5"/>
+      <c r="BK54" s="5"/>
+      <c r="BL54" s="5"/>
+      <c r="BM54" s="5"/>
+      <c r="BN54" s="5"/>
+      <c r="BO54" s="5"/>
+      <c r="BP54" s="5"/>
+      <c r="BQ54" s="5"/>
+      <c r="BR54" s="5"/>
+      <c r="BS54" s="5"/>
+      <c r="BT54" s="5"/>
+      <c r="BU54" s="5"/>
+      <c r="BV54" s="5"/>
+      <c r="BW54" s="5"/>
+      <c r="BX54" s="5"/>
+      <c r="BY54" s="5"/>
+      <c r="BZ54" s="5"/>
+      <c r="CA54" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB54" s="19"/>
+      <c r="CC54" s="19"/>
+      <c r="CD54" s="19"/>
+      <c r="CE54" s="5"/>
+      <c r="CF54" s="5"/>
+      <c r="CG54" s="5"/>
+      <c r="CH54" s="5"/>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="14.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="1"/>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="1"/>
+      <c r="AO55" s="1"/>
+      <c r="AP55" s="1"/>
+      <c r="AQ55" s="1"/>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="1"/>
+      <c r="AT55" s="1"/>
+      <c r="AU55" s="1"/>
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="1"/>
+      <c r="AX55" s="1"/>
+      <c r="AY55" s="1"/>
+      <c r="AZ55" s="1"/>
+      <c r="BA55" s="1"/>
+      <c r="BB55" s="1"/>
+      <c r="BC55" s="1"/>
+      <c r="BD55" s="1"/>
+      <c r="BE55" s="1"/>
+      <c r="BF55" s="1"/>
+      <c r="BG55" s="1"/>
+      <c r="BH55" s="1"/>
+      <c r="BI55" s="1"/>
+      <c r="BJ55" s="1"/>
+      <c r="BK55" s="1"/>
+      <c r="BL55" s="1"/>
+      <c r="BM55" s="1"/>
+      <c r="BN55" s="1"/>
+      <c r="BO55" s="1"/>
+      <c r="BP55" s="1"/>
+      <c r="BQ55" s="1"/>
+      <c r="BR55" s="1"/>
+      <c r="BS55" s="1"/>
+      <c r="BT55" s="1"/>
+      <c r="BU55" s="1"/>
+      <c r="BV55" s="1"/>
+      <c r="BW55" s="1"/>
+      <c r="BX55" s="1"/>
+      <c r="BY55" s="1"/>
+      <c r="BZ55" s="1"/>
+      <c r="CA55" s="1"/>
+      <c r="CB55" s="20"/>
+      <c r="CC55" s="20"/>
+      <c r="CD55" s="20"/>
+      <c r="CE55" s="1"/>
+      <c r="CF55" s="1"/>
+      <c r="CG55" s="1"/>
+      <c r="CH55" s="1"/>
+    </row>
+    <row r="56" s="5" customFormat="1" ht="14.25">
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="21"/>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="21"/>
+      <c r="Z56" s="21"/>
+      <c r="AA56" s="21"/>
+      <c r="AB56" s="21"/>
+      <c r="AC56" s="21"/>
+      <c r="AD56" s="21"/>
+      <c r="AE56" s="21"/>
+      <c r="AF56" s="21"/>
+      <c r="AG56" s="21"/>
+      <c r="AH56" s="21"/>
+      <c r="AI56" s="21"/>
+      <c r="AJ56" s="21"/>
+      <c r="AK56" s="21"/>
+      <c r="AL56" s="21"/>
+      <c r="AM56" s="21"/>
+      <c r="AN56" s="21"/>
+      <c r="AO56" s="21"/>
+      <c r="AP56" s="21"/>
+      <c r="AQ56" s="21"/>
+      <c r="AR56" s="21"/>
+      <c r="AS56" s="21"/>
+      <c r="AT56" s="21"/>
+      <c r="AU56" s="21"/>
+      <c r="AV56" s="21"/>
+      <c r="AW56" s="21"/>
+      <c r="AX56" s="21"/>
+      <c r="AY56" s="21"/>
+      <c r="AZ56" s="21"/>
+      <c r="BA56" s="21"/>
+      <c r="BB56" s="21"/>
+      <c r="BC56" s="21"/>
+      <c r="BD56" s="21"/>
+      <c r="BE56" s="21"/>
+      <c r="BF56" s="21"/>
+      <c r="BG56" s="21"/>
+      <c r="BH56" s="21"/>
+      <c r="BI56" s="21"/>
+      <c r="BJ56" s="21"/>
+      <c r="BK56" s="21"/>
+      <c r="BL56" s="21"/>
+      <c r="BM56" s="21"/>
+      <c r="BN56" s="21"/>
+      <c r="BO56" s="21"/>
+      <c r="BP56" s="21"/>
+      <c r="BQ56" s="21"/>
+      <c r="BR56" s="21"/>
+      <c r="BS56" s="21"/>
+      <c r="BT56" s="21"/>
+      <c r="BU56" s="21"/>
+      <c r="BV56" s="21"/>
+      <c r="BW56" s="21"/>
+      <c r="BX56" s="21"/>
+      <c r="BY56" s="21"/>
+      <c r="BZ56" s="21"/>
+      <c r="CA56" s="21"/>
+      <c r="CB56" s="21"/>
+      <c r="CC56" s="21"/>
+      <c r="CD56" s="21"/>
+      <c r="CE56" s="5"/>
+      <c r="CF56" s="5"/>
+      <c r="CG56" s="5"/>
+      <c r="CH56" s="5"/>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="14.25">
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="21"/>
+      <c r="V57" s="21"/>
+      <c r="W57" s="21"/>
+      <c r="X57" s="21"/>
+      <c r="Y57" s="21"/>
+      <c r="Z57" s="21"/>
+      <c r="AA57" s="21"/>
+      <c r="AB57" s="21"/>
+      <c r="AC57" s="21"/>
+      <c r="AD57" s="21"/>
+      <c r="AE57" s="21"/>
+      <c r="AF57" s="21"/>
+      <c r="AG57" s="21"/>
+      <c r="AH57" s="21"/>
+      <c r="AI57" s="21"/>
+      <c r="AJ57" s="21"/>
+      <c r="AK57" s="21"/>
+      <c r="AL57" s="21"/>
+      <c r="AM57" s="21"/>
+      <c r="AN57" s="21"/>
+      <c r="AO57" s="21"/>
+      <c r="AP57" s="21"/>
+      <c r="AQ57" s="21"/>
+      <c r="AR57" s="21"/>
+      <c r="AS57" s="21"/>
+      <c r="AT57" s="21"/>
+      <c r="AU57" s="21"/>
+      <c r="AV57" s="21"/>
+      <c r="AW57" s="21"/>
+      <c r="AX57" s="21"/>
+      <c r="AY57" s="21"/>
+      <c r="AZ57" s="21"/>
+      <c r="BA57" s="21"/>
+      <c r="BB57" s="21"/>
+      <c r="BC57" s="21"/>
+      <c r="BD57" s="21"/>
+      <c r="BE57" s="21"/>
+      <c r="BF57" s="21"/>
+      <c r="BG57" s="21"/>
+      <c r="BH57" s="21"/>
+      <c r="BI57" s="21"/>
+      <c r="BJ57" s="21"/>
+      <c r="BK57" s="21"/>
+      <c r="BL57" s="21"/>
+      <c r="BM57" s="21"/>
+      <c r="BN57" s="21"/>
+      <c r="BO57" s="21"/>
+      <c r="BP57" s="21"/>
+      <c r="BQ57" s="21"/>
+      <c r="BR57" s="21"/>
+      <c r="BS57" s="21"/>
+      <c r="BT57" s="21"/>
+      <c r="BU57" s="21"/>
+      <c r="BV57" s="21"/>
+      <c r="BW57" s="21"/>
+      <c r="BX57" s="21"/>
+      <c r="BY57" s="21"/>
+      <c r="BZ57" s="21"/>
+      <c r="CA57" s="21"/>
+      <c r="CB57" s="21"/>
+      <c r="CC57" s="21"/>
+      <c r="CD57" s="21"/>
+      <c r="CE57" s="1"/>
+      <c r="CF57" s="1"/>
+      <c r="CG57" s="1"/>
+      <c r="CH57" s="1"/>
+    </row>
+    <row r="58" s="5" customFormat="1" ht="14.25">
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21"/>
+      <c r="W58" s="21"/>
+      <c r="X58" s="21"/>
+      <c r="Y58" s="21"/>
+      <c r="Z58" s="21"/>
+      <c r="AA58" s="21"/>
+      <c r="AB58" s="21"/>
+      <c r="AC58" s="21"/>
+      <c r="AD58" s="21"/>
+      <c r="AE58" s="21"/>
+      <c r="AF58" s="21"/>
+      <c r="AG58" s="21"/>
+      <c r="AH58" s="21"/>
+      <c r="AI58" s="21"/>
+      <c r="AJ58" s="21"/>
+      <c r="AK58" s="21"/>
+      <c r="AL58" s="21"/>
+      <c r="AM58" s="21"/>
+      <c r="AN58" s="21"/>
+      <c r="AO58" s="21"/>
+      <c r="AP58" s="21"/>
+      <c r="AQ58" s="21"/>
+      <c r="AR58" s="21"/>
+      <c r="AS58" s="21"/>
+      <c r="AT58" s="21"/>
+      <c r="AU58" s="21"/>
+      <c r="AV58" s="21"/>
+      <c r="AW58" s="21"/>
+      <c r="AX58" s="21"/>
+      <c r="AY58" s="21"/>
+      <c r="AZ58" s="21"/>
+      <c r="BA58" s="21"/>
+      <c r="BB58" s="21"/>
+      <c r="BC58" s="21"/>
+      <c r="BD58" s="21"/>
+      <c r="BE58" s="21"/>
+      <c r="BF58" s="21"/>
+      <c r="BG58" s="21"/>
+      <c r="BH58" s="21"/>
+      <c r="BI58" s="21"/>
+      <c r="BJ58" s="21"/>
+      <c r="BK58" s="21"/>
+      <c r="BL58" s="21"/>
+      <c r="BM58" s="21"/>
+      <c r="BN58" s="21"/>
+      <c r="BO58" s="21"/>
+      <c r="BP58" s="21"/>
+      <c r="BQ58" s="21"/>
+      <c r="BR58" s="21"/>
+      <c r="BS58" s="21"/>
+      <c r="BT58" s="21"/>
+      <c r="BU58" s="21"/>
+      <c r="BV58" s="21"/>
+      <c r="BW58" s="21"/>
+      <c r="BX58" s="21"/>
+      <c r="BY58" s="21"/>
+      <c r="BZ58" s="21"/>
+      <c r="CA58" s="21"/>
+      <c r="CB58" s="22"/>
+      <c r="CC58" s="22"/>
+      <c r="CD58" s="22"/>
+      <c r="CE58" s="5"/>
+      <c r="CF58" s="5"/>
+      <c r="CG58" s="5"/>
+      <c r="CH58" s="5"/>
+    </row>
+    <row r="59" s="1" customFormat="1" ht="14.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+      <c r="AH59" s="1"/>
+      <c r="AI59" s="1"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1"/>
+      <c r="AL59" s="1"/>
+      <c r="AM59" s="1"/>
+      <c r="AN59" s="1"/>
+      <c r="AO59" s="1"/>
+      <c r="AP59" s="1"/>
+      <c r="AQ59" s="1"/>
+      <c r="AR59" s="1"/>
+      <c r="AS59" s="1"/>
+      <c r="AT59" s="1"/>
+      <c r="AU59" s="1"/>
+      <c r="AV59" s="1"/>
+      <c r="AW59" s="1"/>
+      <c r="AX59" s="1"/>
+      <c r="AY59" s="1"/>
+      <c r="AZ59" s="1"/>
+      <c r="BA59" s="1"/>
+      <c r="BB59" s="1"/>
+      <c r="BC59" s="1"/>
+      <c r="BD59" s="1"/>
+      <c r="BE59" s="1"/>
+      <c r="BF59" s="1"/>
+      <c r="BG59" s="1"/>
+      <c r="BH59" s="1"/>
+      <c r="BI59" s="1"/>
+      <c r="BJ59" s="1"/>
+      <c r="BK59" s="1"/>
+      <c r="BL59" s="1"/>
+      <c r="BM59" s="1"/>
+      <c r="BN59" s="1"/>
+      <c r="BO59" s="1"/>
+      <c r="BP59" s="1"/>
+      <c r="BQ59" s="1"/>
+      <c r="BR59" s="1"/>
+      <c r="BS59" s="1"/>
+      <c r="BT59" s="1"/>
+      <c r="BU59" s="1"/>
+      <c r="BV59" s="1"/>
+      <c r="BW59" s="1"/>
+      <c r="BX59" s="1"/>
+      <c r="BY59" s="1"/>
+      <c r="BZ59" s="1"/>
+      <c r="CA59" s="10"/>
+      <c r="CB59" s="23">
+        <v>3</v>
+      </c>
+      <c r="CC59" s="24"/>
+      <c r="CD59" s="25"/>
+      <c r="CE59" s="1"/>
+      <c r="CF59" s="1"/>
+      <c r="CG59" s="1"/>
+      <c r="CH59" s="1"/>
+    </row>
+    <row r="60" s="5" customFormat="1" ht="14.25">
+      <c r="A60" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="5"/>
+      <c r="AH60" s="5"/>
+      <c r="AI60" s="5"/>
+      <c r="AJ60" s="5"/>
+      <c r="AK60" s="5"/>
+      <c r="AL60" s="5"/>
+      <c r="AM60" s="5"/>
+      <c r="AN60" s="5"/>
+      <c r="AO60" s="5"/>
+      <c r="AP60" s="5"/>
+      <c r="AQ60" s="5"/>
+      <c r="AR60" s="5"/>
+      <c r="AS60" s="5"/>
+      <c r="AT60" s="5"/>
+      <c r="AU60" s="5"/>
+      <c r="AV60" s="5"/>
+      <c r="AW60" s="5"/>
+      <c r="AX60" s="5"/>
+      <c r="AY60" s="5"/>
+      <c r="AZ60" s="5"/>
+      <c r="BA60" s="5"/>
+      <c r="BB60" s="5"/>
+      <c r="BC60" s="5"/>
+      <c r="BD60" s="5"/>
+      <c r="BE60" s="5"/>
+      <c r="BF60" s="5"/>
+      <c r="BG60" s="5"/>
+      <c r="BH60" s="5"/>
+      <c r="BI60" s="5"/>
+      <c r="BJ60" s="5"/>
+      <c r="BK60" s="5"/>
+      <c r="BL60" s="5"/>
+      <c r="BM60" s="5"/>
+      <c r="BN60" s="5"/>
+      <c r="BO60" s="5"/>
+      <c r="BP60" s="5"/>
+      <c r="BQ60" s="5"/>
+      <c r="BR60" s="5"/>
+      <c r="BS60" s="5"/>
+      <c r="BT60" s="5"/>
+      <c r="BU60" s="5"/>
+      <c r="BV60" s="5"/>
+      <c r="BW60" s="5"/>
+      <c r="BX60" s="5"/>
+      <c r="BY60" s="5"/>
+      <c r="BZ60" s="5"/>
+      <c r="CA60" s="5"/>
+      <c r="CB60" s="27"/>
+      <c r="CC60" s="27"/>
+      <c r="CD60" s="27"/>
+      <c r="CE60" s="5"/>
+      <c r="CF60" s="5"/>
+      <c r="CG60" s="5"/>
+      <c r="CH60" s="5"/>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="1"/>
+      <c r="AH61" s="1"/>
+      <c r="AI61" s="1"/>
+      <c r="AJ61" s="1"/>
+      <c r="AK61" s="1"/>
+      <c r="AL61" s="1"/>
+      <c r="AM61" s="1"/>
+      <c r="AN61" s="1"/>
+      <c r="AO61" s="1"/>
+      <c r="AP61" s="1"/>
+      <c r="AQ61" s="1"/>
+      <c r="AR61" s="1"/>
+      <c r="AS61" s="1"/>
+      <c r="AT61" s="1"/>
+      <c r="AU61" s="1"/>
+      <c r="AV61" s="1"/>
+      <c r="AW61" s="1"/>
+      <c r="AX61" s="1"/>
+      <c r="AY61" s="1"/>
+      <c r="AZ61" s="1"/>
+      <c r="BA61" s="1"/>
+      <c r="BB61" s="1"/>
+      <c r="BC61" s="1"/>
+      <c r="BD61" s="1"/>
+      <c r="BE61" s="1"/>
+      <c r="BF61" s="1"/>
+      <c r="BG61" s="1"/>
+      <c r="BH61" s="1"/>
+      <c r="BI61" s="1"/>
+      <c r="BJ61" s="1"/>
+      <c r="BK61" s="1"/>
+      <c r="BL61" s="1"/>
+      <c r="BM61" s="1"/>
+      <c r="BN61" s="1"/>
+      <c r="BO61" s="1"/>
+      <c r="BP61" s="1"/>
+      <c r="BQ61" s="1"/>
+      <c r="BR61" s="1"/>
+      <c r="BS61" s="1"/>
+      <c r="BT61" s="1"/>
+      <c r="BU61" s="1"/>
+      <c r="BV61" s="1"/>
+      <c r="BW61" s="1"/>
+      <c r="BX61" s="1"/>
+      <c r="BY61" s="1"/>
+      <c r="BZ61" s="1"/>
+      <c r="CA61" s="1"/>
+      <c r="CB61" s="29"/>
+      <c r="CC61" s="29"/>
+      <c r="CD61" s="29"/>
+    </row>
+    <row r="62" s="5" customFormat="1" ht="14.25">
+      <c r="A62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="5"/>
+      <c r="AG62" s="5"/>
+      <c r="AH62" s="5"/>
+      <c r="AI62" s="5"/>
+      <c r="AJ62" s="5"/>
+      <c r="AK62" s="5"/>
+      <c r="AL62" s="5"/>
+      <c r="AM62" s="5"/>
+      <c r="AN62" s="5"/>
+      <c r="AO62" s="5"/>
+      <c r="AP62" s="5"/>
+      <c r="AQ62" s="5"/>
+      <c r="AR62" s="5"/>
+      <c r="AS62" s="5"/>
+      <c r="AT62" s="5"/>
+      <c r="AU62" s="5"/>
+      <c r="AV62" s="5"/>
+      <c r="AW62" s="5"/>
+      <c r="AX62" s="5"/>
+      <c r="AY62" s="5"/>
+      <c r="AZ62" s="5"/>
+      <c r="BA62" s="5"/>
+      <c r="BB62" s="5"/>
+      <c r="BC62" s="5"/>
+      <c r="BD62" s="5"/>
+      <c r="BE62" s="5"/>
+      <c r="BF62" s="5"/>
+      <c r="BG62" s="5"/>
+      <c r="BH62" s="5"/>
+      <c r="BI62" s="5"/>
+      <c r="BJ62" s="5"/>
+      <c r="BK62" s="5"/>
+      <c r="BL62" s="5"/>
+      <c r="BM62" s="5"/>
+      <c r="BN62" s="5"/>
+      <c r="BO62" s="5"/>
+      <c r="BP62" s="5"/>
+      <c r="BQ62" s="5"/>
+      <c r="BR62" s="5"/>
+      <c r="BS62" s="5"/>
+      <c r="BT62" s="5"/>
+      <c r="BU62" s="5"/>
+      <c r="BV62" s="5"/>
+      <c r="BW62" s="5"/>
+      <c r="BX62" s="5"/>
+      <c r="BY62" s="5"/>
+      <c r="BZ62" s="5"/>
+      <c r="CA62" s="5"/>
+      <c r="CB62" s="27"/>
+      <c r="CC62" s="27"/>
+      <c r="CD62" s="27"/>
+      <c r="CE62" s="5"/>
+      <c r="CF62" s="5"/>
+      <c r="CG62" s="5"/>
+      <c r="CH62" s="5"/>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="14.25">
+      <c r="A63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="1"/>
+      <c r="AH63" s="1"/>
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="1"/>
+      <c r="AO63" s="1"/>
+      <c r="AP63" s="1"/>
+      <c r="AQ63" s="1"/>
+      <c r="AR63" s="1"/>
+      <c r="AS63" s="1"/>
+      <c r="AT63" s="1"/>
+      <c r="AU63" s="1"/>
+      <c r="AV63" s="1"/>
+      <c r="AW63" s="1"/>
+      <c r="AX63" s="1"/>
+      <c r="AY63" s="1"/>
+      <c r="AZ63" s="1"/>
+      <c r="BA63" s="1"/>
+      <c r="BB63" s="1"/>
+      <c r="BC63" s="1"/>
+      <c r="BD63" s="1"/>
+      <c r="BE63" s="1"/>
+      <c r="BF63" s="1"/>
+      <c r="BG63" s="1"/>
+      <c r="BH63" s="1"/>
+      <c r="BI63" s="1"/>
+      <c r="BJ63" s="1"/>
+      <c r="BK63" s="1"/>
+      <c r="BL63" s="1"/>
+      <c r="BM63" s="1"/>
+      <c r="BN63" s="1"/>
+      <c r="BO63" s="1"/>
+      <c r="BP63" s="1"/>
+      <c r="BQ63" s="1"/>
+      <c r="BR63" s="1"/>
+      <c r="BS63" s="1"/>
+      <c r="BT63" s="1"/>
+      <c r="BU63" s="1"/>
+      <c r="BV63" s="1"/>
+      <c r="BW63" s="1"/>
+      <c r="BX63" s="1"/>
+      <c r="BY63" s="1"/>
+      <c r="BZ63" s="1"/>
+      <c r="CA63" s="1"/>
+      <c r="CB63" s="29"/>
+      <c r="CC63" s="29"/>
+      <c r="CD63" s="29"/>
+      <c r="CE63" s="1"/>
+      <c r="CF63" s="1"/>
+      <c r="CG63" s="1"/>
+      <c r="CH63" s="1"/>
+    </row>
+    <row r="64" s="5" customFormat="1" ht="14.25">
+      <c r="A64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="5"/>
+      <c r="AG64" s="5"/>
+      <c r="AH64" s="5"/>
+      <c r="AI64" s="5"/>
+      <c r="AJ64" s="5"/>
+      <c r="AK64" s="5"/>
+      <c r="AL64" s="5"/>
+      <c r="AM64" s="5"/>
+      <c r="AN64" s="5"/>
+      <c r="AO64" s="5"/>
+      <c r="AP64" s="5"/>
+      <c r="AQ64" s="5"/>
+      <c r="AR64" s="5"/>
+      <c r="AS64" s="5"/>
+      <c r="AT64" s="5"/>
+      <c r="AU64" s="5"/>
+      <c r="AV64" s="5"/>
+      <c r="AW64" s="5"/>
+      <c r="AX64" s="5"/>
+      <c r="AY64" s="5"/>
+      <c r="AZ64" s="5"/>
+      <c r="BA64" s="5"/>
+      <c r="BB64" s="5"/>
+      <c r="BC64" s="5"/>
+      <c r="BD64" s="5"/>
+      <c r="BE64" s="5"/>
+      <c r="BF64" s="5"/>
+      <c r="BG64" s="5"/>
+      <c r="BH64" s="5"/>
+      <c r="BI64" s="5"/>
+      <c r="BJ64" s="5"/>
+      <c r="BK64" s="5"/>
+      <c r="BL64" s="5"/>
+      <c r="BM64" s="5"/>
+      <c r="BN64" s="5"/>
+      <c r="BO64" s="5"/>
+      <c r="BP64" s="5"/>
+      <c r="BQ64" s="5"/>
+      <c r="BR64" s="5"/>
+      <c r="BS64" s="5"/>
+      <c r="BT64" s="5"/>
+      <c r="BU64" s="5"/>
+      <c r="BV64" s="5"/>
+      <c r="BW64" s="5"/>
+      <c r="BX64" s="5"/>
+      <c r="BY64" s="5"/>
+      <c r="BZ64" s="5"/>
+      <c r="CA64" s="5"/>
+      <c r="CB64" s="27"/>
+      <c r="CC64" s="27"/>
+      <c r="CD64" s="27"/>
+      <c r="CE64" s="5"/>
+      <c r="CF64" s="5"/>
+      <c r="CG64" s="5"/>
+      <c r="CH64" s="5"/>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="14.25">
+      <c r="A65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="1"/>
+      <c r="AG65" s="1"/>
+      <c r="AH65" s="1"/>
+      <c r="AI65" s="1"/>
+      <c r="AJ65" s="1"/>
+      <c r="AK65" s="1"/>
+      <c r="AL65" s="1"/>
+      <c r="AM65" s="1"/>
+      <c r="AN65" s="1"/>
+      <c r="AO65" s="1"/>
+      <c r="AP65" s="1"/>
+      <c r="AQ65" s="1"/>
+      <c r="AR65" s="1"/>
+      <c r="AS65" s="1"/>
+      <c r="AT65" s="1"/>
+      <c r="AU65" s="1"/>
+      <c r="AV65" s="1"/>
+      <c r="AW65" s="1"/>
+      <c r="AX65" s="1"/>
+      <c r="AY65" s="1"/>
+      <c r="AZ65" s="1"/>
+      <c r="BA65" s="1"/>
+      <c r="BB65" s="1"/>
+      <c r="BC65" s="1"/>
+      <c r="BD65" s="1"/>
+      <c r="BE65" s="1"/>
+      <c r="BF65" s="1"/>
+      <c r="BG65" s="1"/>
+      <c r="BH65" s="1"/>
+      <c r="BI65" s="1"/>
+      <c r="BJ65" s="1"/>
+      <c r="BK65" s="1"/>
+      <c r="BL65" s="1"/>
+      <c r="BM65" s="1"/>
+      <c r="BN65" s="1"/>
+      <c r="BO65" s="1"/>
+      <c r="BP65" s="1"/>
+      <c r="BQ65" s="1"/>
+      <c r="BR65" s="1"/>
+      <c r="BS65" s="1"/>
+      <c r="BT65" s="1"/>
+      <c r="BU65" s="1"/>
+      <c r="BV65" s="1"/>
+      <c r="BW65" s="1"/>
+      <c r="BX65" s="1"/>
+      <c r="BY65" s="1"/>
+      <c r="BZ65" s="1"/>
+      <c r="CA65" s="1"/>
+      <c r="CB65" s="29"/>
+      <c r="CC65" s="29"/>
+      <c r="CD65" s="29"/>
+      <c r="CE65" s="1"/>
+      <c r="CF65" s="1"/>
+      <c r="CG65" s="1"/>
+      <c r="CH65" s="1"/>
+    </row>
+    <row r="66" s="5" customFormat="1" ht="14.25">
+      <c r="A66" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="5"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5"/>
+      <c r="AF66" s="5"/>
+      <c r="AG66" s="5"/>
+      <c r="AH66" s="5"/>
+      <c r="AI66" s="5"/>
+      <c r="AJ66" s="5"/>
+      <c r="AK66" s="5"/>
+      <c r="AL66" s="5"/>
+      <c r="AM66" s="5"/>
+      <c r="AN66" s="5"/>
+      <c r="AO66" s="5"/>
+      <c r="AP66" s="5"/>
+      <c r="AQ66" s="5"/>
+      <c r="AR66" s="5"/>
+      <c r="AS66" s="5"/>
+      <c r="AT66" s="5"/>
+      <c r="AU66" s="5"/>
+      <c r="AV66" s="5"/>
+      <c r="AW66" s="5"/>
+      <c r="AX66" s="5"/>
+      <c r="AY66" s="5"/>
+      <c r="AZ66" s="5"/>
+      <c r="BA66" s="5"/>
+      <c r="BB66" s="5"/>
+      <c r="BC66" s="5"/>
+      <c r="BD66" s="5"/>
+      <c r="BE66" s="5"/>
+      <c r="BF66" s="5"/>
+      <c r="BG66" s="5"/>
+      <c r="BH66" s="5"/>
+      <c r="BI66" s="5"/>
+      <c r="BJ66" s="5"/>
+      <c r="BK66" s="5"/>
+      <c r="BL66" s="5"/>
+      <c r="BM66" s="5"/>
+      <c r="BN66" s="5"/>
+      <c r="BO66" s="5"/>
+      <c r="BP66" s="5"/>
+      <c r="BQ66" s="5"/>
+      <c r="BR66" s="5"/>
+      <c r="BS66" s="5"/>
+      <c r="BT66" s="5"/>
+      <c r="BU66" s="5"/>
+      <c r="BV66" s="5"/>
+      <c r="BW66" s="5"/>
+      <c r="BX66" s="5"/>
+      <c r="BY66" s="5"/>
+      <c r="BZ66" s="5"/>
+      <c r="CA66" s="5"/>
+      <c r="CB66" s="27"/>
+      <c r="CC66" s="27"/>
+      <c r="CD66" s="27"/>
+      <c r="CE66" s="5"/>
+      <c r="CF66" s="5"/>
+      <c r="CG66" s="5"/>
+      <c r="CH66" s="5"/>
+    </row>
+    <row r="67" s="1" customFormat="1" ht="14.25">
+      <c r="A67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="1"/>
+      <c r="AO67" s="1"/>
+      <c r="AP67" s="1"/>
+      <c r="AQ67" s="1"/>
+      <c r="AR67" s="1"/>
+      <c r="AS67" s="1"/>
+      <c r="AT67" s="1"/>
+      <c r="AU67" s="1"/>
+      <c r="AV67" s="1"/>
+      <c r="AW67" s="1"/>
+      <c r="AX67" s="1"/>
+      <c r="AY67" s="1"/>
+      <c r="AZ67" s="1"/>
+      <c r="BA67" s="1"/>
+      <c r="BB67" s="1"/>
+      <c r="BC67" s="1"/>
+      <c r="BD67" s="1"/>
+      <c r="BE67" s="1"/>
+      <c r="BF67" s="1"/>
+      <c r="BG67" s="1"/>
+      <c r="BH67" s="1"/>
+      <c r="BI67" s="1"/>
+      <c r="BJ67" s="1"/>
+      <c r="BK67" s="1"/>
+      <c r="BL67" s="1"/>
+      <c r="BM67" s="1"/>
+      <c r="BN67" s="1"/>
+      <c r="BO67" s="1"/>
+      <c r="BP67" s="1"/>
+      <c r="BQ67" s="1"/>
+      <c r="BR67" s="1"/>
+      <c r="BS67" s="1"/>
+      <c r="BT67" s="1"/>
+      <c r="BU67" s="1"/>
+      <c r="BV67" s="1"/>
+      <c r="BW67" s="1"/>
+      <c r="BX67" s="1"/>
+      <c r="BY67" s="1"/>
+      <c r="BZ67" s="1"/>
+      <c r="CA67" s="1"/>
+      <c r="CB67" s="29"/>
+      <c r="CC67" s="29"/>
+      <c r="CD67" s="29"/>
+      <c r="CE67" s="1"/>
+      <c r="CF67" s="1"/>
+      <c r="CG67" s="1"/>
+      <c r="CH67" s="1"/>
+    </row>
+    <row r="68" s="5" customFormat="1" ht="14.25">
+      <c r="A68" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5"/>
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="5"/>
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="5"/>
+      <c r="AF68" s="5"/>
+      <c r="AG68" s="5"/>
+      <c r="AH68" s="5"/>
+      <c r="AI68" s="5"/>
+      <c r="AJ68" s="5"/>
+      <c r="AK68" s="5"/>
+      <c r="AL68" s="5"/>
+      <c r="AM68" s="5"/>
+      <c r="AN68" s="5"/>
+      <c r="AO68" s="5"/>
+      <c r="AP68" s="5"/>
+      <c r="AQ68" s="5"/>
+      <c r="AR68" s="5"/>
+      <c r="AS68" s="5"/>
+      <c r="AT68" s="5"/>
+      <c r="AU68" s="5"/>
+      <c r="AV68" s="5"/>
+      <c r="AW68" s="5"/>
+      <c r="AX68" s="5"/>
+      <c r="AY68" s="5"/>
+      <c r="AZ68" s="5"/>
+      <c r="BA68" s="5"/>
+      <c r="BB68" s="5"/>
+      <c r="BC68" s="5"/>
+      <c r="BD68" s="5"/>
+      <c r="BE68" s="5"/>
+      <c r="BF68" s="5"/>
+      <c r="BG68" s="5"/>
+      <c r="BH68" s="5"/>
+      <c r="BI68" s="5"/>
+      <c r="BJ68" s="5"/>
+      <c r="BK68" s="5"/>
+      <c r="BL68" s="5"/>
+      <c r="BM68" s="5"/>
+      <c r="BN68" s="5"/>
+      <c r="BO68" s="5"/>
+      <c r="BP68" s="5"/>
+      <c r="BQ68" s="5"/>
+      <c r="BR68" s="5"/>
+      <c r="BS68" s="5"/>
+      <c r="BT68" s="5"/>
+      <c r="BU68" s="5"/>
+      <c r="BV68" s="5"/>
+      <c r="BW68" s="5"/>
+      <c r="BX68" s="5"/>
+      <c r="BY68" s="5"/>
+      <c r="BZ68" s="5"/>
+      <c r="CA68" s="5"/>
+      <c r="CB68" s="27"/>
+      <c r="CC68" s="27"/>
+      <c r="CD68" s="27"/>
+      <c r="CE68" s="5"/>
+      <c r="CF68" s="5"/>
+      <c r="CG68" s="5"/>
+      <c r="CH68" s="5"/>
+    </row>
+    <row r="69" s="1" customFormat="1" ht="14.25">
+      <c r="A69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="1"/>
+      <c r="AP69" s="1"/>
+      <c r="AQ69" s="1"/>
+      <c r="AR69" s="1"/>
+      <c r="AS69" s="1"/>
+      <c r="AT69" s="1"/>
+      <c r="AU69" s="1"/>
+      <c r="AV69" s="1"/>
+      <c r="AW69" s="1"/>
+      <c r="AX69" s="1"/>
+      <c r="AY69" s="1"/>
+      <c r="AZ69" s="1"/>
+      <c r="BA69" s="1"/>
+      <c r="BB69" s="1"/>
+      <c r="BC69" s="1"/>
+      <c r="BD69" s="1"/>
+      <c r="BE69" s="1"/>
+      <c r="BF69" s="1"/>
+      <c r="BG69" s="1"/>
+      <c r="BH69" s="1"/>
+      <c r="BI69" s="1"/>
+      <c r="BJ69" s="1"/>
+      <c r="BK69" s="1"/>
+      <c r="BL69" s="1"/>
+      <c r="BM69" s="1"/>
+      <c r="BN69" s="1"/>
+      <c r="BO69" s="1"/>
+      <c r="BP69" s="1"/>
+      <c r="BQ69" s="1"/>
+      <c r="BR69" s="1"/>
+      <c r="BS69" s="1"/>
+      <c r="BT69" s="1"/>
+      <c r="BU69" s="1"/>
+      <c r="BV69" s="1"/>
+      <c r="BW69" s="1"/>
+      <c r="BX69" s="1"/>
+      <c r="BY69" s="1"/>
+      <c r="BZ69" s="1"/>
+      <c r="CA69" s="1"/>
+      <c r="CB69" s="29"/>
+      <c r="CC69" s="29"/>
+      <c r="CD69" s="29"/>
+      <c r="CE69" s="1"/>
+      <c r="CF69" s="1"/>
+      <c r="CG69" s="1"/>
+      <c r="CH69" s="1"/>
+    </row>
+    <row r="70" s="5" customFormat="1" ht="14.25">
+      <c r="A70" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
+      <c r="AA70" s="5"/>
+      <c r="AB70" s="5"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="5"/>
+      <c r="AG70" s="5"/>
+      <c r="AH70" s="5"/>
+      <c r="AI70" s="5"/>
+      <c r="AJ70" s="5"/>
+      <c r="AK70" s="5"/>
+      <c r="AL70" s="5"/>
+      <c r="AM70" s="5"/>
+      <c r="AN70" s="5"/>
+      <c r="AO70" s="5"/>
+      <c r="AP70" s="5"/>
+      <c r="AQ70" s="5"/>
+      <c r="AR70" s="5"/>
+      <c r="AS70" s="5"/>
+      <c r="AT70" s="5"/>
+      <c r="AU70" s="5"/>
+      <c r="AV70" s="5"/>
+      <c r="AW70" s="5"/>
+      <c r="AX70" s="5"/>
+      <c r="AY70" s="5"/>
+      <c r="AZ70" s="5"/>
+      <c r="BA70" s="5"/>
+      <c r="BB70" s="5"/>
+      <c r="BC70" s="5"/>
+      <c r="BD70" s="5"/>
+      <c r="BE70" s="5"/>
+      <c r="BF70" s="5"/>
+      <c r="BG70" s="5"/>
+      <c r="BH70" s="5"/>
+      <c r="BI70" s="5"/>
+      <c r="BJ70" s="5"/>
+      <c r="BK70" s="5"/>
+      <c r="BL70" s="5"/>
+      <c r="BM70" s="5"/>
+      <c r="BN70" s="5"/>
+      <c r="BO70" s="5"/>
+      <c r="BP70" s="5"/>
+      <c r="BQ70" s="5"/>
+      <c r="BR70" s="5"/>
+      <c r="BS70" s="5"/>
+      <c r="BT70" s="5"/>
+      <c r="BU70" s="5"/>
+      <c r="BV70" s="5"/>
+      <c r="BW70" s="5"/>
+      <c r="BX70" s="5"/>
+      <c r="BY70" s="5"/>
+      <c r="BZ70" s="5"/>
+      <c r="CA70" s="5"/>
+      <c r="CB70" s="27"/>
+      <c r="CC70" s="27"/>
+      <c r="CD70" s="27"/>
+      <c r="CE70" s="5"/>
+      <c r="CF70" s="5"/>
+      <c r="CG70" s="5"/>
+      <c r="CH70" s="5"/>
+    </row>
+    <row r="71" s="1" customFormat="1" ht="14.25">
+      <c r="A71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="1"/>
+      <c r="AO71" s="1"/>
+      <c r="AP71" s="1"/>
+      <c r="AQ71" s="1"/>
+      <c r="AR71" s="1"/>
+      <c r="AS71" s="1"/>
+      <c r="AT71" s="1"/>
+      <c r="AU71" s="1"/>
+      <c r="AV71" s="1"/>
+      <c r="AW71" s="1"/>
+      <c r="AX71" s="1"/>
+      <c r="AY71" s="1"/>
+      <c r="AZ71" s="1"/>
+      <c r="BA71" s="1"/>
+      <c r="BB71" s="1"/>
+      <c r="BC71" s="1"/>
+      <c r="BD71" s="1"/>
+      <c r="BE71" s="1"/>
+      <c r="BF71" s="1"/>
+      <c r="BG71" s="1"/>
+      <c r="BH71" s="1"/>
+      <c r="BI71" s="1"/>
+      <c r="BJ71" s="1"/>
+      <c r="BK71" s="1"/>
+      <c r="BL71" s="1"/>
+      <c r="BM71" s="1"/>
+      <c r="BN71" s="1"/>
+      <c r="BO71" s="1"/>
+      <c r="BP71" s="1"/>
+      <c r="BQ71" s="1"/>
+      <c r="BR71" s="1"/>
+      <c r="BS71" s="1"/>
+      <c r="BT71" s="1"/>
+      <c r="BU71" s="1"/>
+      <c r="BV71" s="1"/>
+      <c r="BW71" s="1"/>
+      <c r="BX71" s="1"/>
+      <c r="BY71" s="1"/>
+      <c r="BZ71" s="1"/>
+      <c r="CA71" s="1"/>
+      <c r="CB71" s="29"/>
+      <c r="CC71" s="29"/>
+      <c r="CD71" s="29"/>
+      <c r="CE71" s="1"/>
+      <c r="CF71" s="1"/>
+      <c r="CG71" s="1"/>
+      <c r="CH71" s="1"/>
+    </row>
+    <row r="72" s="5" customFormat="1" ht="14.25">
+      <c r="A72" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+      <c r="X72" s="5"/>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5"/>
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="5"/>
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="5"/>
+      <c r="AE72" s="5"/>
+      <c r="AF72" s="5"/>
+      <c r="AG72" s="5"/>
+      <c r="AH72" s="5"/>
+      <c r="AI72" s="5"/>
+      <c r="AJ72" s="5"/>
+      <c r="AK72" s="5"/>
+      <c r="AL72" s="5"/>
+      <c r="AM72" s="5"/>
+      <c r="AN72" s="5"/>
+      <c r="AO72" s="5"/>
+      <c r="AP72" s="5"/>
+      <c r="AQ72" s="5"/>
+      <c r="AR72" s="5"/>
+      <c r="AS72" s="5"/>
+      <c r="AT72" s="5"/>
+      <c r="AU72" s="5"/>
+      <c r="AV72" s="5"/>
+      <c r="AW72" s="5"/>
+      <c r="AX72" s="5"/>
+      <c r="AY72" s="5"/>
+      <c r="AZ72" s="5"/>
+      <c r="BA72" s="5"/>
+      <c r="BB72" s="5"/>
+      <c r="BC72" s="5"/>
+      <c r="BD72" s="5"/>
+      <c r="BE72" s="5"/>
+      <c r="BF72" s="5"/>
+      <c r="BG72" s="5"/>
+      <c r="BH72" s="5"/>
+      <c r="BI72" s="5"/>
+      <c r="BJ72" s="5"/>
+      <c r="BK72" s="5"/>
+      <c r="BL72" s="5"/>
+      <c r="BM72" s="5"/>
+      <c r="BN72" s="5"/>
+      <c r="BO72" s="5"/>
+      <c r="BP72" s="5"/>
+      <c r="BQ72" s="5"/>
+      <c r="BR72" s="5"/>
+      <c r="BS72" s="5"/>
+      <c r="BT72" s="5"/>
+      <c r="BU72" s="5"/>
+      <c r="BV72" s="5"/>
+      <c r="BW72" s="5"/>
+      <c r="BX72" s="5"/>
+      <c r="BY72" s="5"/>
+      <c r="BZ72" s="5"/>
+      <c r="CA72" s="5"/>
+      <c r="CB72" s="27"/>
+      <c r="CC72" s="27"/>
+      <c r="CD72" s="27"/>
+      <c r="CE72" s="5"/>
+      <c r="CF72" s="5"/>
+      <c r="CG72" s="5"/>
+      <c r="CH72" s="5"/>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="14.25">
+      <c r="A73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
+      <c r="AF73" s="1"/>
+      <c r="AG73" s="1"/>
+      <c r="AH73" s="1"/>
+      <c r="AI73" s="1"/>
+      <c r="AJ73" s="1"/>
+      <c r="AK73" s="1"/>
+      <c r="AL73" s="1"/>
+      <c r="AM73" s="1"/>
+      <c r="AN73" s="1"/>
+      <c r="AO73" s="1"/>
+      <c r="AP73" s="1"/>
+      <c r="AQ73" s="1"/>
+      <c r="AR73" s="1"/>
+      <c r="AS73" s="1"/>
+      <c r="AT73" s="1"/>
+      <c r="AU73" s="1"/>
+      <c r="AV73" s="1"/>
+      <c r="AW73" s="1"/>
+      <c r="AX73" s="1"/>
+      <c r="AY73" s="1"/>
+      <c r="AZ73" s="1"/>
+      <c r="BA73" s="1"/>
+      <c r="BB73" s="1"/>
+      <c r="BC73" s="1"/>
+      <c r="BD73" s="1"/>
+      <c r="BE73" s="1"/>
+      <c r="BF73" s="1"/>
+      <c r="BG73" s="1"/>
+      <c r="BH73" s="1"/>
+      <c r="BI73" s="1"/>
+      <c r="BJ73" s="1"/>
+      <c r="BK73" s="1"/>
+      <c r="BL73" s="1"/>
+      <c r="BM73" s="1"/>
+      <c r="BN73" s="1"/>
+      <c r="BO73" s="1"/>
+      <c r="BP73" s="1"/>
+      <c r="BQ73" s="1"/>
+      <c r="BR73" s="1"/>
+      <c r="BS73" s="1"/>
+      <c r="BT73" s="1"/>
+      <c r="BU73" s="1"/>
+      <c r="BV73" s="1"/>
+      <c r="BW73" s="1"/>
+      <c r="BX73" s="1"/>
+      <c r="BY73" s="1"/>
+      <c r="BZ73" s="1"/>
+      <c r="CA73" s="1"/>
+      <c r="CB73" s="1"/>
+      <c r="CC73" s="1"/>
+      <c r="CD73" s="1"/>
+      <c r="CE73" s="1"/>
+      <c r="CF73" s="1"/>
+      <c r="CG73" s="1"/>
+      <c r="CH73" s="1"/>
+    </row>
+    <row r="74" s="5" customFormat="1" ht="14.25">
+      <c r="A74" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="5"/>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5"/>
+      <c r="AA74" s="5"/>
+      <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+      <c r="AE74" s="5"/>
+      <c r="AF74" s="5"/>
+      <c r="AG74" s="5"/>
+      <c r="AH74" s="5"/>
+      <c r="AI74" s="5"/>
+      <c r="AJ74" s="5"/>
+      <c r="AK74" s="5"/>
+      <c r="AL74" s="5"/>
+      <c r="AM74" s="5"/>
+      <c r="AN74" s="5"/>
+      <c r="AO74" s="5"/>
+      <c r="AP74" s="5"/>
+      <c r="AQ74" s="5"/>
+      <c r="AR74" s="5"/>
+      <c r="AS74" s="5"/>
+      <c r="AT74" s="5"/>
+      <c r="AU74" s="5"/>
+      <c r="AV74" s="5"/>
+      <c r="AW74" s="5"/>
+      <c r="AX74" s="5"/>
+      <c r="AY74" s="5"/>
+      <c r="AZ74" s="5"/>
+      <c r="BA74" s="5"/>
+      <c r="BB74" s="5"/>
+      <c r="BC74" s="5"/>
+      <c r="BD74" s="5"/>
+      <c r="BE74" s="5"/>
+      <c r="BF74" s="5"/>
+      <c r="BG74" s="5"/>
+      <c r="BH74" s="5"/>
+      <c r="BI74" s="5"/>
+      <c r="BJ74" s="5"/>
+      <c r="BK74" s="5"/>
+      <c r="BL74" s="5"/>
+      <c r="BM74" s="5"/>
+      <c r="BN74" s="5"/>
+      <c r="BO74" s="5"/>
+      <c r="BP74" s="5"/>
+      <c r="BQ74" s="5"/>
+      <c r="BR74" s="5"/>
+      <c r="BS74" s="5"/>
+      <c r="BT74" s="5"/>
+      <c r="BU74" s="5"/>
+      <c r="BV74" s="5"/>
+      <c r="BW74" s="5"/>
+      <c r="BX74" s="5"/>
+      <c r="BY74" s="5"/>
+      <c r="BZ74" s="5"/>
+      <c r="CA74" s="5"/>
+      <c r="CB74" s="5"/>
+      <c r="CC74" s="5"/>
+      <c r="CD74" s="5"/>
+      <c r="CE74" s="5"/>
+      <c r="CF74" s="5"/>
+      <c r="CG74" s="5"/>
+      <c r="CH74" s="5"/>
+    </row>
+    <row r="75" s="1" customFormat="1" ht="14.25">
+      <c r="A75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="1"/>
+      <c r="AH75" s="1"/>
+      <c r="AI75" s="1"/>
+      <c r="AJ75" s="1"/>
+      <c r="AK75" s="1"/>
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="1"/>
+      <c r="AN75" s="1"/>
+      <c r="AO75" s="1"/>
+      <c r="AP75" s="1"/>
+      <c r="AQ75" s="1"/>
+      <c r="AR75" s="1"/>
+      <c r="AS75" s="1"/>
+      <c r="AT75" s="1"/>
+      <c r="AU75" s="1"/>
+      <c r="AV75" s="1"/>
+      <c r="AW75" s="1"/>
+      <c r="AX75" s="1"/>
+      <c r="AY75" s="1"/>
+      <c r="AZ75" s="1"/>
+      <c r="BA75" s="1"/>
+      <c r="BB75" s="1"/>
+      <c r="BC75" s="1"/>
+      <c r="BD75" s="1"/>
+      <c r="BE75" s="1"/>
+      <c r="BF75" s="1"/>
+      <c r="BG75" s="1"/>
+      <c r="BH75" s="1"/>
+      <c r="BI75" s="1"/>
+      <c r="BJ75" s="1"/>
+      <c r="BK75" s="1"/>
+      <c r="BL75" s="1"/>
+      <c r="BM75" s="1"/>
+      <c r="BN75" s="1"/>
+      <c r="BO75" s="1"/>
+      <c r="BP75" s="1"/>
+      <c r="BQ75" s="1"/>
+      <c r="BR75" s="1"/>
+      <c r="BS75" s="1"/>
+      <c r="BT75" s="1"/>
+      <c r="BU75" s="1"/>
+      <c r="BV75" s="1"/>
+      <c r="BW75" s="1"/>
+      <c r="BX75" s="1"/>
+      <c r="BY75" s="1"/>
+      <c r="BZ75" s="1"/>
+      <c r="CA75" s="1"/>
+      <c r="CB75" s="1"/>
+      <c r="CC75" s="1"/>
+      <c r="CD75" s="1"/>
+      <c r="CE75" s="1"/>
+      <c r="CF75" s="1"/>
+      <c r="CG75" s="1"/>
+      <c r="CH75" s="1"/>
+    </row>
+    <row r="76" s="5" customFormat="1" ht="14.25">
+      <c r="A76" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+      <c r="X76" s="5"/>
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="5"/>
+      <c r="AA76" s="5"/>
+      <c r="AB76" s="5"/>
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="5"/>
+      <c r="AE76" s="5"/>
+      <c r="AF76" s="5"/>
+      <c r="AG76" s="5"/>
+      <c r="AH76" s="5"/>
+      <c r="AI76" s="5"/>
+      <c r="AJ76" s="5"/>
+      <c r="AK76" s="5"/>
+      <c r="AL76" s="5"/>
+      <c r="AM76" s="5"/>
+      <c r="AN76" s="5"/>
+      <c r="AO76" s="5"/>
+      <c r="AP76" s="5"/>
+      <c r="AQ76" s="5"/>
+      <c r="AR76" s="5"/>
+      <c r="AS76" s="5"/>
+      <c r="AT76" s="5"/>
+      <c r="AU76" s="5"/>
+      <c r="AV76" s="5"/>
+      <c r="AW76" s="5"/>
+      <c r="AX76" s="5"/>
+      <c r="AY76" s="5"/>
+      <c r="AZ76" s="5"/>
+      <c r="BA76" s="5"/>
+      <c r="BB76" s="5"/>
+      <c r="BC76" s="5"/>
+      <c r="BD76" s="5"/>
+      <c r="BE76" s="5"/>
+      <c r="BF76" s="5"/>
+      <c r="BG76" s="5"/>
+      <c r="BH76" s="5"/>
+      <c r="BI76" s="5"/>
+      <c r="BJ76" s="5"/>
+      <c r="BK76" s="5"/>
+      <c r="BL76" s="5"/>
+      <c r="BM76" s="5"/>
+      <c r="BN76" s="5"/>
+      <c r="BO76" s="5"/>
+      <c r="BP76" s="5"/>
+      <c r="BQ76" s="5"/>
+      <c r="BR76" s="5"/>
+      <c r="BS76" s="5"/>
+      <c r="BT76" s="5"/>
+      <c r="BU76" s="5"/>
+      <c r="BV76" s="5"/>
+      <c r="BW76" s="5"/>
+      <c r="BX76" s="5"/>
+      <c r="BY76" s="5"/>
+      <c r="BZ76" s="5"/>
+      <c r="CA76" s="5"/>
+      <c r="CB76" s="5"/>
+      <c r="CC76" s="5"/>
+      <c r="CD76" s="5"/>
+      <c r="CE76" s="5"/>
+      <c r="CF76" s="5"/>
+      <c r="CG76" s="5"/>
+      <c r="CH76" s="5"/>
+    </row>
+    <row r="77" s="1" customFormat="1" ht="14.25">
+      <c r="A77" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="1"/>
+      <c r="AH77" s="1"/>
+      <c r="AI77" s="1"/>
+      <c r="AJ77" s="1"/>
+      <c r="AK77" s="1"/>
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="1"/>
+      <c r="AN77" s="1"/>
+      <c r="AO77" s="1"/>
+      <c r="AP77" s="1"/>
+      <c r="AQ77" s="1"/>
+      <c r="AR77" s="1"/>
+      <c r="AS77" s="1"/>
+      <c r="AT77" s="1"/>
+      <c r="AU77" s="1"/>
+      <c r="AV77" s="1"/>
+      <c r="AW77" s="1"/>
+      <c r="AX77" s="1"/>
+      <c r="AY77" s="1"/>
+      <c r="AZ77" s="1"/>
+      <c r="BA77" s="1"/>
+      <c r="BB77" s="1"/>
+      <c r="BC77" s="1"/>
+      <c r="BD77" s="1"/>
+      <c r="BE77" s="1"/>
+      <c r="BF77" s="1"/>
+      <c r="BG77" s="1"/>
+      <c r="BH77" s="1"/>
+      <c r="BI77" s="1"/>
+      <c r="BJ77" s="1"/>
+      <c r="BK77" s="1"/>
+      <c r="BL77" s="1"/>
+      <c r="BM77" s="1"/>
+      <c r="BN77" s="1"/>
+      <c r="BO77" s="1"/>
+      <c r="BP77" s="1"/>
+      <c r="BQ77" s="1"/>
+      <c r="BR77" s="1"/>
+      <c r="BS77" s="1"/>
+      <c r="BT77" s="1"/>
+      <c r="BU77" s="1"/>
+      <c r="BV77" s="1"/>
+      <c r="BW77" s="1"/>
+      <c r="BX77" s="1"/>
+      <c r="BY77" s="1"/>
+      <c r="BZ77" s="1"/>
+      <c r="CA77" s="1"/>
+      <c r="CB77" s="1"/>
+      <c r="CC77" s="1"/>
+      <c r="CD77" s="1"/>
+      <c r="CE77" s="1"/>
+      <c r="CF77" s="1"/>
+      <c r="CG77" s="1"/>
+      <c r="CH77" s="1"/>
+    </row>
+    <row r="78" s="5" customFormat="1" ht="14.25">
+      <c r="A78" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+      <c r="X78" s="5"/>
+      <c r="Y78" s="5"/>
+      <c r="Z78" s="5"/>
+      <c r="AA78" s="5"/>
+      <c r="AB78" s="5"/>
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="5"/>
+      <c r="AE78" s="5"/>
+      <c r="AF78" s="5"/>
+      <c r="AG78" s="5"/>
+      <c r="AH78" s="5"/>
+      <c r="AI78" s="5"/>
+      <c r="AJ78" s="5"/>
+      <c r="AK78" s="5"/>
+      <c r="AL78" s="5"/>
+      <c r="AM78" s="5"/>
+      <c r="AN78" s="5"/>
+      <c r="AO78" s="5"/>
+      <c r="AP78" s="5"/>
+      <c r="AQ78" s="5"/>
+      <c r="AR78" s="5"/>
+      <c r="AS78" s="5"/>
+      <c r="AT78" s="5"/>
+      <c r="AU78" s="5"/>
+      <c r="AV78" s="5"/>
+      <c r="AW78" s="5"/>
+      <c r="AX78" s="5"/>
+      <c r="AY78" s="5"/>
+      <c r="AZ78" s="5"/>
+      <c r="BA78" s="5"/>
+      <c r="BB78" s="5"/>
+      <c r="BC78" s="5"/>
+      <c r="BD78" s="5"/>
+      <c r="BE78" s="5"/>
+      <c r="BF78" s="5"/>
+      <c r="BG78" s="5"/>
+      <c r="BH78" s="5"/>
+      <c r="BI78" s="5"/>
+      <c r="BJ78" s="5"/>
+      <c r="BK78" s="5"/>
+      <c r="BL78" s="5"/>
+      <c r="BM78" s="5"/>
+      <c r="BN78" s="5"/>
+      <c r="BO78" s="5"/>
+      <c r="BP78" s="5"/>
+      <c r="BQ78" s="5"/>
+      <c r="BR78" s="5"/>
+      <c r="BS78" s="5"/>
+      <c r="BT78" s="5"/>
+      <c r="BU78" s="5"/>
+      <c r="BV78" s="5"/>
+      <c r="BW78" s="5"/>
+      <c r="BX78" s="5"/>
+      <c r="BY78" s="5"/>
+      <c r="BZ78" s="5"/>
+      <c r="CA78" s="5"/>
+      <c r="CB78" s="5"/>
+      <c r="CC78" s="5"/>
+      <c r="CD78" s="5"/>
+      <c r="CE78" s="5"/>
+      <c r="CF78" s="5"/>
+      <c r="CG78" s="5"/>
+      <c r="CH78" s="5"/>
+    </row>
+    <row r="79" ht="14.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="1"/>
+      <c r="AO79" s="1"/>
+      <c r="AP79" s="1"/>
+      <c r="AQ79" s="1"/>
+      <c r="AR79" s="1"/>
+      <c r="AS79" s="1"/>
+      <c r="AT79" s="1"/>
+      <c r="AU79" s="1"/>
+      <c r="AV79" s="1"/>
+      <c r="AW79" s="1"/>
+      <c r="AX79" s="1"/>
+      <c r="AY79" s="1"/>
+      <c r="AZ79" s="1"/>
+      <c r="BA79" s="1"/>
+      <c r="BB79" s="1"/>
+      <c r="BC79" s="1"/>
+      <c r="BD79" s="1"/>
+      <c r="BE79" s="1"/>
+      <c r="BF79" s="1"/>
+      <c r="BG79" s="1"/>
+      <c r="BH79" s="1"/>
+      <c r="BI79" s="1"/>
+      <c r="BJ79" s="1"/>
+      <c r="BK79" s="1"/>
+      <c r="BL79" s="1"/>
+      <c r="BM79" s="1"/>
+      <c r="BN79" s="1"/>
+      <c r="BO79" s="1"/>
+      <c r="BP79" s="1"/>
+      <c r="BQ79" s="1"/>
+      <c r="BR79" s="1"/>
+      <c r="BS79" s="1"/>
+      <c r="BT79" s="1"/>
+      <c r="BU79" s="1"/>
+      <c r="BV79" s="1"/>
+      <c r="BW79" s="1"/>
+      <c r="BX79" s="1"/>
+      <c r="BY79" s="1"/>
+      <c r="BZ79" s="1"/>
+      <c r="CA79" s="1"/>
+      <c r="CB79" s="20"/>
+      <c r="CC79" s="20"/>
+      <c r="CD79" s="20"/>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="A80" s="21"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="21"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="21"/>
+      <c r="R80" s="21"/>
+      <c r="S80" s="21"/>
+      <c r="T80" s="21"/>
+      <c r="U80" s="21"/>
+      <c r="V80" s="21"/>
+      <c r="W80" s="21"/>
+      <c r="X80" s="21"/>
+      <c r="Y80" s="21"/>
+      <c r="Z80" s="21"/>
+      <c r="AA80" s="21"/>
+      <c r="AB80" s="21"/>
+      <c r="AC80" s="21"/>
+      <c r="AD80" s="21"/>
+      <c r="AE80" s="21"/>
+      <c r="AF80" s="21"/>
+      <c r="AG80" s="21"/>
+      <c r="AH80" s="21"/>
+      <c r="AI80" s="21"/>
+      <c r="AJ80" s="21"/>
+      <c r="AK80" s="21"/>
+      <c r="AL80" s="21"/>
+      <c r="AM80" s="21"/>
+      <c r="AN80" s="21"/>
+      <c r="AO80" s="21"/>
+      <c r="AP80" s="21"/>
+      <c r="AQ80" s="21"/>
+      <c r="AR80" s="21"/>
+      <c r="AS80" s="21"/>
+      <c r="AT80" s="21"/>
+      <c r="AU80" s="21"/>
+      <c r="AV80" s="21"/>
+      <c r="AW80" s="21"/>
+      <c r="AX80" s="21"/>
+      <c r="AY80" s="21"/>
+      <c r="AZ80" s="21"/>
+      <c r="BA80" s="21"/>
+      <c r="BB80" s="21"/>
+      <c r="BC80" s="21"/>
+      <c r="BD80" s="21"/>
+      <c r="BE80" s="21"/>
+      <c r="BF80" s="21"/>
+      <c r="BG80" s="21"/>
+      <c r="BH80" s="21"/>
+      <c r="BI80" s="21"/>
+      <c r="BJ80" s="21"/>
+      <c r="BK80" s="21"/>
+      <c r="BL80" s="21"/>
+      <c r="BM80" s="21"/>
+      <c r="BN80" s="21"/>
+      <c r="BO80" s="21"/>
+      <c r="BP80" s="21"/>
+      <c r="BQ80" s="21"/>
+      <c r="BR80" s="21"/>
+      <c r="BS80" s="21"/>
+      <c r="BT80" s="21"/>
+      <c r="BU80" s="21"/>
+      <c r="BV80" s="21"/>
+      <c r="BW80" s="21"/>
+      <c r="BX80" s="21"/>
+      <c r="BY80" s="21"/>
+      <c r="BZ80" s="21"/>
+      <c r="CA80" s="21"/>
+      <c r="CB80" s="21"/>
+      <c r="CC80" s="21"/>
+      <c r="CD80" s="21"/>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="21"/>
+      <c r="O81" s="21"/>
+      <c r="P81" s="21"/>
+      <c r="Q81" s="21"/>
+      <c r="R81" s="21"/>
+      <c r="S81" s="21"/>
+      <c r="T81" s="21"/>
+      <c r="U81" s="21"/>
+      <c r="V81" s="21"/>
+      <c r="W81" s="21"/>
+      <c r="X81" s="21"/>
+      <c r="Y81" s="21"/>
+      <c r="Z81" s="21"/>
+      <c r="AA81" s="21"/>
+      <c r="AB81" s="21"/>
+      <c r="AC81" s="21"/>
+      <c r="AD81" s="21"/>
+      <c r="AE81" s="21"/>
+      <c r="AF81" s="21"/>
+      <c r="AG81" s="21"/>
+      <c r="AH81" s="21"/>
+      <c r="AI81" s="21"/>
+      <c r="AJ81" s="21"/>
+      <c r="AK81" s="21"/>
+      <c r="AL81" s="21"/>
+      <c r="AM81" s="21"/>
+      <c r="AN81" s="21"/>
+      <c r="AO81" s="21"/>
+      <c r="AP81" s="21"/>
+      <c r="AQ81" s="21"/>
+      <c r="AR81" s="21"/>
+      <c r="AS81" s="21"/>
+      <c r="AT81" s="21"/>
+      <c r="AU81" s="21"/>
+      <c r="AV81" s="21"/>
+      <c r="AW81" s="21"/>
+      <c r="AX81" s="21"/>
+      <c r="AY81" s="21"/>
+      <c r="AZ81" s="21"/>
+      <c r="BA81" s="21"/>
+      <c r="BB81" s="21"/>
+      <c r="BC81" s="21"/>
+      <c r="BD81" s="21"/>
+      <c r="BE81" s="21"/>
+      <c r="BF81" s="21"/>
+      <c r="BG81" s="21"/>
+      <c r="BH81" s="21"/>
+      <c r="BI81" s="21"/>
+      <c r="BJ81" s="21"/>
+      <c r="BK81" s="21"/>
+      <c r="BL81" s="21"/>
+      <c r="BM81" s="21"/>
+      <c r="BN81" s="21"/>
+      <c r="BO81" s="21"/>
+      <c r="BP81" s="21"/>
+      <c r="BQ81" s="21"/>
+      <c r="BR81" s="21"/>
+      <c r="BS81" s="21"/>
+      <c r="BT81" s="21"/>
+      <c r="BU81" s="21"/>
+      <c r="BV81" s="21"/>
+      <c r="BW81" s="21"/>
+      <c r="BX81" s="21"/>
+      <c r="BY81" s="21"/>
+      <c r="BZ81" s="21"/>
+      <c r="CA81" s="21"/>
+      <c r="CB81" s="21"/>
+      <c r="CC81" s="21"/>
+      <c r="CD81" s="21"/>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="21"/>
+      <c r="R82" s="21"/>
+      <c r="S82" s="21"/>
+      <c r="T82" s="21"/>
+      <c r="U82" s="21"/>
+      <c r="V82" s="21"/>
+      <c r="W82" s="21"/>
+      <c r="X82" s="21"/>
+      <c r="Y82" s="21"/>
+      <c r="Z82" s="21"/>
+      <c r="AA82" s="21"/>
+      <c r="AB82" s="21"/>
+      <c r="AC82" s="21"/>
+      <c r="AD82" s="21"/>
+      <c r="AE82" s="21"/>
+      <c r="AF82" s="21"/>
+      <c r="AG82" s="21"/>
+      <c r="AH82" s="21"/>
+      <c r="AI82" s="21"/>
+      <c r="AJ82" s="21"/>
+      <c r="AK82" s="21"/>
+      <c r="AL82" s="21"/>
+      <c r="AM82" s="21"/>
+      <c r="AN82" s="21"/>
+      <c r="AO82" s="21"/>
+      <c r="AP82" s="21"/>
+      <c r="AQ82" s="21"/>
+      <c r="AR82" s="21"/>
+      <c r="AS82" s="21"/>
+      <c r="AT82" s="21"/>
+      <c r="AU82" s="21"/>
+      <c r="AV82" s="21"/>
+      <c r="AW82" s="21"/>
+      <c r="AX82" s="21"/>
+      <c r="AY82" s="21"/>
+      <c r="AZ82" s="21"/>
+      <c r="BA82" s="21"/>
+      <c r="BB82" s="21"/>
+      <c r="BC82" s="21"/>
+      <c r="BD82" s="21"/>
+      <c r="BE82" s="21"/>
+      <c r="BF82" s="21"/>
+      <c r="BG82" s="21"/>
+      <c r="BH82" s="21"/>
+      <c r="BI82" s="21"/>
+      <c r="BJ82" s="21"/>
+      <c r="BK82" s="21"/>
+      <c r="BL82" s="21"/>
+      <c r="BM82" s="21"/>
+      <c r="BN82" s="21"/>
+      <c r="BO82" s="21"/>
+      <c r="BP82" s="21"/>
+      <c r="BQ82" s="21"/>
+      <c r="BR82" s="21"/>
+      <c r="BS82" s="21"/>
+      <c r="BT82" s="21"/>
+      <c r="BU82" s="21"/>
+      <c r="BV82" s="21"/>
+      <c r="BW82" s="21"/>
+      <c r="BX82" s="21"/>
+      <c r="BY82" s="21"/>
+      <c r="BZ82" s="21"/>
+      <c r="CA82" s="21"/>
+      <c r="CB82" s="22"/>
+      <c r="CC82" s="22"/>
+      <c r="CD82" s="22"/>
+    </row>
+    <row r="83" ht="14.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="1"/>
+      <c r="AH83" s="1"/>
+      <c r="AI83" s="1"/>
+      <c r="AJ83" s="1"/>
+      <c r="AK83" s="1"/>
+      <c r="AL83" s="1"/>
+      <c r="AM83" s="1"/>
+      <c r="AN83" s="1"/>
+      <c r="AO83" s="1"/>
+      <c r="AP83" s="1"/>
+      <c r="AQ83" s="1"/>
+      <c r="AR83" s="1"/>
+      <c r="AS83" s="1"/>
+      <c r="AT83" s="1"/>
+      <c r="AU83" s="1"/>
+      <c r="AV83" s="1"/>
+      <c r="AW83" s="1"/>
+      <c r="AX83" s="1"/>
+      <c r="AY83" s="1"/>
+      <c r="AZ83" s="1"/>
+      <c r="BA83" s="1"/>
+      <c r="BB83" s="1"/>
+      <c r="BC83" s="1"/>
+      <c r="BD83" s="1"/>
+      <c r="BE83" s="1"/>
+      <c r="BF83" s="1"/>
+      <c r="BG83" s="1"/>
+      <c r="BH83" s="1"/>
+      <c r="BI83" s="1"/>
+      <c r="BJ83" s="1"/>
+      <c r="BK83" s="1"/>
+      <c r="BL83" s="1"/>
+      <c r="BM83" s="1"/>
+      <c r="BN83" s="1"/>
+      <c r="BO83" s="1"/>
+      <c r="BP83" s="1"/>
+      <c r="BQ83" s="1"/>
+      <c r="BR83" s="1"/>
+      <c r="BS83" s="1"/>
+      <c r="BT83" s="1"/>
+      <c r="BU83" s="1"/>
+      <c r="BV83" s="1"/>
+      <c r="BW83" s="1"/>
+      <c r="BX83" s="1"/>
+      <c r="BY83" s="1"/>
+      <c r="BZ83" s="1"/>
+      <c r="CA83" s="10"/>
+      <c r="CB83" s="23">
+        <v>3</v>
+      </c>
+      <c r="CC83" s="24"/>
+      <c r="CD83" s="25"/>
+    </row>
+    <row r="84" ht="14.25">
+      <c r="A84" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25">
+      <c r="A85" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25">
+      <c r="A86" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25">
+      <c r="A87" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25">
+      <c r="A88" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25">
+      <c r="A89" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25">
+      <c r="A90" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L90" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M90" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N90" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O90" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="P90" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q90" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="R90" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="S90" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="T90" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25">
+      <c r="A91" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25">
+      <c r="A92" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S92" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="T92" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="U92" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="V92" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25">
+      <c r="A93" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="L93" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="M93" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N93" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O93" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="P93" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q93" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="R93" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="S93" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="T93" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="U93" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="V93" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="W93" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25">
+      <c r="A94" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="M94" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="N94" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="O94" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="U94" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="V94" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="W94" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25">
+      <c r="A95" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N95" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="O95" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="P95" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q95" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="R95" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="S95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO95" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP95" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25">
+      <c r="A96" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="O96" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P96" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q96" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="R96" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="S96" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="T96" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="U96" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="V96" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="W96" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="X96" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y96" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z96" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA96" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB96" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC96" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD96" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE96" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF96" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG96" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH96" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI96" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ96" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK96" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL96" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM96" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN96" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO96" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP96" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ96" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR96" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS96" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT96" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU96" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV96" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW96" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX96" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25">
+      <c r="A97" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P97" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q97" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="R97" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="S97" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="T97" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="U97" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="V97" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="W97" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="X97" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y97" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z97" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA97" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB97" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC97" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD97" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE97" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF97" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG97" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH97" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI97" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ97" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK97" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL97" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM97" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN97" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO97" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP97" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ97" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR97" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25">
+      <c r="A98" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q98" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="R98" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="S98" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="T98" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="U98" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="V98" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="W98" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="X98" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y98" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z98" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA98" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB98" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC98" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD98" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE98" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF98" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG98" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH98" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI98" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ98" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK98" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL98" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM98" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN98" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO98" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP98" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ98" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR98" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS98" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25">
+      <c r="A99" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP99" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ99" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR99" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS99" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT99" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU99" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV99" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW99" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX99" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY99" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25">
+      <c r="A100" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25">
+      <c r="A101" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25">
+      <c r="A102" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25">
+      <c r="A103" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25">
+      <c r="A104" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25">
+      <c r="A105" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25">
+      <c r="A106" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25">
+      <c r="A107" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25">
+      <c r="A108" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" ht="14.25">
+      <c r="A109" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25">
+      <c r="A110" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25">
+      <c r="A111" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25">
+      <c r="A112" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25">
+      <c r="A113" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25">
+      <c r="A114" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25">
+      <c r="A115" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25">
+      <c r="A116" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25">
+      <c r="A117" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118" ht="14.25">
+      <c r="A118" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="119" ht="14.25">
+      <c r="A119" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25">
+      <c r="A120" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25">
+      <c r="A121" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25">
+      <c r="A122" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25">
+      <c r="A123" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="124" ht="14.25">
+      <c r="A124" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25">
+      <c r="A125" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25">
+      <c r="A126" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25">
+      <c r="A127" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25">
+      <c r="A128" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="129" ht="14.25">
+      <c r="A129" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" ht="14.25">
+      <c r="A130" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25">
+      <c r="A131" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="132" ht="14.25">
+      <c r="A132" s="30" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
     <mergeCell ref="CB1:CD4"/>
     <mergeCell ref="CB5:CD29"/>
     <mergeCell ref="CB30:CD30"/>
+    <mergeCell ref="A32:CD34"/>
+    <mergeCell ref="CB35:CD38"/>
+    <mergeCell ref="CB39:CD54"/>
+    <mergeCell ref="A56:CD58"/>
+    <mergeCell ref="A80:CD82"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700776" bottom="0.75196850393700776" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="8" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="8" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>